--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M602"/>
+  <dimension ref="A1:M605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25204,6 +25204,141 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>346.26</v>
+      </c>
+      <c r="C603" t="n">
+        <v>348.46</v>
+      </c>
+      <c r="D603" t="n">
+        <v>349.15</v>
+      </c>
+      <c r="E603" t="n">
+        <v>347.8166666666667</v>
+      </c>
+      <c r="F603" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="G603" t="n">
+        <v>350.27</v>
+      </c>
+      <c r="H603" t="n">
+        <v>345.29</v>
+      </c>
+      <c r="I603" t="n">
+        <v>355.4</v>
+      </c>
+      <c r="J603" t="n">
+        <v>365.05</v>
+      </c>
+      <c r="K603" t="n">
+        <v>367.84</v>
+      </c>
+      <c r="L603" t="n">
+        <v>376.8114285714286</v>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>332.0518181818182</v>
+      </c>
+      <c r="C604" t="n">
+        <v>344.62</v>
+      </c>
+      <c r="D604" t="n">
+        <v>350.89</v>
+      </c>
+      <c r="E604" t="n">
+        <v>355.4722222222222</v>
+      </c>
+      <c r="F604" t="n">
+        <v>359.3</v>
+      </c>
+      <c r="G604" t="n">
+        <v>347.2218181818182</v>
+      </c>
+      <c r="H604" t="n">
+        <v>347.2266666666667</v>
+      </c>
+      <c r="I604" t="n">
+        <v>350.9318181818182</v>
+      </c>
+      <c r="J604" t="n">
+        <v>359.6218181818182</v>
+      </c>
+      <c r="K604" t="n">
+        <v>367.27</v>
+      </c>
+      <c r="L604" t="n">
+        <v>375.2657142857143</v>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>338.4627272727272</v>
+      </c>
+      <c r="C605" t="n">
+        <v>355.84</v>
+      </c>
+      <c r="D605" t="n">
+        <v>357.97</v>
+      </c>
+      <c r="E605" t="n">
+        <v>353.7388888888889</v>
+      </c>
+      <c r="F605" t="n">
+        <v>352.91</v>
+      </c>
+      <c r="G605" t="n">
+        <v>346.4827272727272</v>
+      </c>
+      <c r="H605" t="n">
+        <v>351.6266666666667</v>
+      </c>
+      <c r="I605" t="n">
+        <v>363.8727272727273</v>
+      </c>
+      <c r="J605" t="n">
+        <v>367.7327272727272</v>
+      </c>
+      <c r="K605" t="n">
+        <v>377.82</v>
+      </c>
+      <c r="L605" t="n">
+        <v>373.1385714285714</v>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25215,7 +25350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B637"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31593,6 +31728,36 @@
       </c>
       <c r="B637" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -31761,28 +31926,28 @@
         <v>0.0648</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2385751119154758</v>
+        <v>-0.2273997335854055</v>
       </c>
       <c r="J2" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K2" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01782718763394697</v>
+        <v>0.01633985764563195</v>
       </c>
       <c r="M2" t="n">
-        <v>9.707315047093383</v>
+        <v>9.706824914426159</v>
       </c>
       <c r="N2" t="n">
-        <v>150.739098741872</v>
+        <v>150.5122129013203</v>
       </c>
       <c r="O2" t="n">
-        <v>12.27758521623336</v>
+        <v>12.26834189698511</v>
       </c>
       <c r="P2" t="n">
-        <v>335.9107916629181</v>
+        <v>335.7915568741378</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31838,28 +32003,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2128080431324218</v>
+        <v>-0.2025350578165182</v>
       </c>
       <c r="J3" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K3" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01762149398882351</v>
+        <v>0.0160947525549463</v>
       </c>
       <c r="M3" t="n">
-        <v>8.852031033453905</v>
+        <v>8.853630095510576</v>
       </c>
       <c r="N3" t="n">
-        <v>122.2017947461983</v>
+        <v>122.0525295007905</v>
       </c>
       <c r="O3" t="n">
-        <v>11.05449206188137</v>
+        <v>11.04773866005123</v>
       </c>
       <c r="P3" t="n">
-        <v>346.280976651113</v>
+        <v>346.171798593414</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31915,28 +32080,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2163087583394781</v>
+        <v>-0.2086802448310128</v>
       </c>
       <c r="J4" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K4" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02000872155693667</v>
+        <v>0.01880146897238277</v>
       </c>
       <c r="M4" t="n">
-        <v>8.344414693437498</v>
+        <v>8.331763411069669</v>
       </c>
       <c r="N4" t="n">
-        <v>111.5013947118978</v>
+        <v>111.1680507507862</v>
       </c>
       <c r="O4" t="n">
-        <v>10.55942208228735</v>
+        <v>10.54362607221947</v>
       </c>
       <c r="P4" t="n">
-        <v>351.6620673482338</v>
+        <v>351.5807922352944</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31992,28 +32157,28 @@
         <v>0.0503</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1604134374945622</v>
+        <v>-0.1525351100719438</v>
       </c>
       <c r="J5" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K5" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01097343228685221</v>
+        <v>0.01001694367941686</v>
       </c>
       <c r="M5" t="n">
-        <v>8.396141117174883</v>
+        <v>8.384798410180279</v>
       </c>
       <c r="N5" t="n">
-        <v>114.5983161576831</v>
+        <v>114.2317398192791</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7050603061208</v>
+        <v>10.687924953857</v>
       </c>
       <c r="P5" t="n">
-        <v>349.7359146475256</v>
+        <v>349.6527486697415</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32069,28 +32234,28 @@
         <v>0.0524</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08184282839682461</v>
+        <v>-0.07352451625369839</v>
       </c>
       <c r="J6" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K6" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003273452127977694</v>
+        <v>0.00265904835325903</v>
       </c>
       <c r="M6" t="n">
-        <v>8.091427907189992</v>
+        <v>8.091646225303906</v>
       </c>
       <c r="N6" t="n">
-        <v>101.4301061762756</v>
+        <v>101.3759148080777</v>
       </c>
       <c r="O6" t="n">
-        <v>10.0712514702134</v>
+        <v>10.06856071184346</v>
       </c>
       <c r="P6" t="n">
-        <v>346.8319206136275</v>
+        <v>346.7444367398607</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32146,28 +32311,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02118621242921815</v>
+        <v>-0.0181901821535218</v>
       </c>
       <c r="J7" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K7" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001722324327293467</v>
+        <v>0.0001283239418852222</v>
       </c>
       <c r="M7" t="n">
-        <v>8.889264813629989</v>
+        <v>8.851298844672741</v>
       </c>
       <c r="N7" t="n">
-        <v>130.1561133581245</v>
+        <v>129.4470584904409</v>
       </c>
       <c r="O7" t="n">
-        <v>11.40859822055824</v>
+        <v>11.37748032256883</v>
       </c>
       <c r="P7" t="n">
-        <v>345.8727739897575</v>
+        <v>345.8414379486622</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32223,28 +32388,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2509054449735024</v>
+        <v>0.2469084911551665</v>
       </c>
       <c r="J8" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K8" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02579119795930129</v>
+        <v>0.0252510265988185</v>
       </c>
       <c r="M8" t="n">
-        <v>8.591856964129759</v>
+        <v>8.561375831931777</v>
       </c>
       <c r="N8" t="n">
-        <v>117.1914511326406</v>
+        <v>116.6064771145918</v>
       </c>
       <c r="O8" t="n">
-        <v>10.82550004076673</v>
+        <v>10.79844790303643</v>
       </c>
       <c r="P8" t="n">
-        <v>345.1486789373604</v>
+        <v>345.1907152572018</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32300,28 +32465,28 @@
         <v>0.0609</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2989538072687803</v>
+        <v>0.298503341747216</v>
       </c>
       <c r="J9" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K9" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02829047320971956</v>
+        <v>0.02848565694936311</v>
       </c>
       <c r="M9" t="n">
-        <v>9.846389381608974</v>
+        <v>9.816841093115912</v>
       </c>
       <c r="N9" t="n">
-        <v>153.2674499525018</v>
+        <v>152.5227830941681</v>
       </c>
       <c r="O9" t="n">
-        <v>12.38012318002134</v>
+        <v>12.35001146129703</v>
       </c>
       <c r="P9" t="n">
-        <v>349.5639493839224</v>
+        <v>349.5686155834139</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32377,28 +32542,28 @@
         <v>0.0596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3492448662819161</v>
+        <v>0.3488923126897807</v>
       </c>
       <c r="J10" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K10" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03403035636194784</v>
+        <v>0.03433118342114982</v>
       </c>
       <c r="M10" t="n">
-        <v>10.51190971024996</v>
+        <v>10.4670104917734</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8448284785147</v>
+        <v>170.8977175250131</v>
       </c>
       <c r="O10" t="n">
-        <v>13.10895985494328</v>
+        <v>13.07278537745545</v>
       </c>
       <c r="P10" t="n">
-        <v>355.5945002326964</v>
+        <v>355.5981701170687</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32454,28 +32619,28 @@
         <v>0.0431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.16123569120533</v>
+        <v>0.1701354748484864</v>
       </c>
       <c r="J11" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K11" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006407508148304819</v>
+        <v>0.007193472475556129</v>
       </c>
       <c r="M11" t="n">
-        <v>11.19366408832686</v>
+        <v>11.17148665799646</v>
       </c>
       <c r="N11" t="n">
-        <v>200.0466296428832</v>
+        <v>199.3286219264487</v>
       </c>
       <c r="O11" t="n">
-        <v>14.14378413448407</v>
+        <v>14.11837887033949</v>
       </c>
       <c r="P11" t="n">
-        <v>359.2804124340475</v>
+        <v>359.1870707513963</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32531,28 +32696,28 @@
         <v>0.0373</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4996470535830247</v>
+        <v>-0.4708096955464582</v>
       </c>
       <c r="J12" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K12" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03880665880171164</v>
+        <v>0.03463637996266178</v>
       </c>
       <c r="M12" t="n">
-        <v>13.52860784832043</v>
+        <v>13.58933027753278</v>
       </c>
       <c r="N12" t="n">
-        <v>308.8094513410149</v>
+        <v>310.305117804628</v>
       </c>
       <c r="O12" t="n">
-        <v>17.57297502817935</v>
+        <v>17.61547949403104</v>
       </c>
       <c r="P12" t="n">
-        <v>364.2206449745566</v>
+        <v>363.9196265908294</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -32589,7 +32754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M602"/>
+  <dimension ref="A1:M605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68243,6 +68408,207 @@
         </is>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-45.56280564863332,170.73180474220965</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-45.56333675439387,170.73132168111476</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-45.56385654634404,170.73082656650863</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-45.56439912226924,170.73039187415586</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-45.56494337808754,170.72994385851223</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-45.56553587686499,170.72962953869163</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-45.5660869112665,170.72920027036147</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>-45.56670193683113,170.72897022916425</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>-45.56730886880557,170.72874886048575</t>
+        </is>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>-45.56791384187179,170.7285157579442</t>
+        </is>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>-45.56852779254147,170.7283075734195</t>
+        </is>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-45.56273166085059,170.73165632708623</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-45.563316757855084,170.73128156914333</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-45.56386492199694,170.730845396826</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-45.56443179113285,170.73047820636225</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-45.56500949340857,170.7301266387371</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-45.56552367980411,170.72959456635374</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-45.56609422022537,170.72922279078566</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>-45.56668579383223,170.7289178092036</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>-45.56729141577123,170.72868391663974</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>-45.56791207861811,170.72850890126426</t>
+        </is>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>-45.56852263872449,170.72828918212497</t>
+        </is>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-45.562765045085314,170.73172329379483</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-45.56337518520363,170.73139877139056</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-45.56389900220875,170.73092201679657</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-45.56442439441459,170.73045865943865</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-45.564983170894365,170.73005386824</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-45.565520722388136,170.72958608663322</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-45.56611082576126,170.7292739559712</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>-45.56673254770239,170.729069629866</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>-45.56731749446701,170.7287809571833</t>
+        </is>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>-45.567944714212956,170.728635810061</t>
+        </is>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>-45.568515546267385,170.72826387285377</t>
+        </is>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -31771,7 +31771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31862,35 +31862,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31949,27 +31954,28 @@
       <c r="P2" t="n">
         <v>335.7915568741378</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.72818790871176 -45.56100247887429, 170.73738189177928 -45.56558568721622)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.7281879087118</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.56100247887429</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.7373818917793</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.56558568721622</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.7327849002455</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.56329408304526</v>
       </c>
     </row>
@@ -32026,27 +32032,28 @@
       <c r="P3" t="n">
         <v>346.171798593414</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.72768184570702 -45.56152211721077, 170.73687585556215 -45.56610534032982)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.727681845707</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.56152211721077</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.7368758555621</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.56610534032982</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.7322788506346</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.5638137287703</v>
       </c>
     </row>
@@ -32103,27 +32110,28 @@
       <c r="P4" t="n">
         <v>351.5807922352944</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.7270481724845 -45.562175819224066, 170.7365737331927 -45.56641260714216)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.7270481724845</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.56217581922407</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.7365737331927</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.56641260714216</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.7318109528386</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.56429421318312</v>
       </c>
     </row>
@@ -32180,27 +32188,28 @@
       <c r="P5" t="n">
         <v>349.6527486697415</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.72646963014026 -45.56291480303028, 170.73639630339687 -45.56667100746765)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.7264696301403</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.56291480303028</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.7363963033969</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.56667100746765</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.7314329667686</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.56479290524896</v>
       </c>
     </row>
@@ -32257,27 +32266,28 @@
       <c r="P6" t="n">
         <v>346.7444367398607</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.72603497182772 -45.5635293482104, 170.73605957334573 -45.56715531561527)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.7260349718277</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.5635293482104</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.7360595733457</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.56715531561527</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.7310472725867</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.56534233191283</v>
       </c>
     </row>
@@ -32334,27 +32344,28 @@
       <c r="P7" t="n">
         <v>345.8414379486622</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.72561092922052 -45.56413423050425, 170.73571044807585 -45.56765643281797)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.7256109292205</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.56413423050425</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.7357104480758</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.56765643281797</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.7306606886482</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.56589533166111</v>
       </c>
     </row>
@@ -32411,27 +32422,28 @@
       <c r="P8" t="n">
         <v>345.1907152572018</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.72518517976852 -45.56478372121289, 170.7354215696508 -45.568105782787306)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.7251851797685</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.56478372121289</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.7354215696508</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.56810578278731</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.7303033747096</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.56644475200009</v>
       </c>
     </row>
@@ -32488,27 +32500,28 @@
       <c r="P9" t="n">
         <v>349.5686155834139</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.72480083212665 -45.565417846218494, 170.73512833997458 -45.56859812918258)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.7248008321266</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.56541784621849</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.7351283399746</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.56859812918258</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.7299645860506</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.56700798770053</v>
       </c>
     </row>
@@ -32565,27 +32578,28 @@
       <c r="P10" t="n">
         <v>355.5981701170687</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.724381422149 -45.56613505619854, 170.7349137865604 -45.568965417733736)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.724381422149</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.56613505619854</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.7349137865604</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.56896541773374</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.7296476043547</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.56755023696614</v>
       </c>
     </row>
@@ -32642,27 +32656,28 @@
       <c r="P11" t="n">
         <v>359.1870707513963</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.72409100598816 -45.566775871472124, 170.73468070569848 -45.569499001075854)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.7240910059882</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.56677587147212</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.7346807056985</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.56949900107585</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.7293858558433</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.56813743627399</v>
       </c>
     </row>
@@ -32719,27 +32734,28 @@
       <c r="P12" t="n">
         <v>363.9196265908294</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.72382427943975 -45.56727131847549, 170.73429840012543 -45.570206403760785)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.7238242794398</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.56727131847549</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.7342984001254</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.57020640376079</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.7290613397826</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.56873886111813</v>
       </c>
     </row>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M605"/>
+  <dimension ref="A1:M612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25339,6 +25339,305 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:19+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>342.680909090909</v>
+      </c>
+      <c r="C606" t="n">
+        <v>346.08</v>
+      </c>
+      <c r="D606" t="n">
+        <v>358.06</v>
+      </c>
+      <c r="E606" t="n">
+        <v>354.2966666666667</v>
+      </c>
+      <c r="F606" t="n">
+        <v>357.45</v>
+      </c>
+      <c r="G606" t="n">
+        <v>348.6309090909091</v>
+      </c>
+      <c r="H606" t="n">
+        <v>352.99</v>
+      </c>
+      <c r="I606" t="n">
+        <v>361.5309090909091</v>
+      </c>
+      <c r="J606" t="n">
+        <v>374.7309090909091</v>
+      </c>
+      <c r="K606" t="n">
+        <v>368.47</v>
+      </c>
+      <c r="L606" t="n">
+        <v>361.2428571428572</v>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>348.7354545454546</v>
+      </c>
+      <c r="C607" t="n">
+        <v>355.81</v>
+      </c>
+      <c r="D607" t="n">
+        <v>360.35</v>
+      </c>
+      <c r="E607" t="n">
+        <v>361.0755555555555</v>
+      </c>
+      <c r="F607" t="n">
+        <v>359.57</v>
+      </c>
+      <c r="G607" t="n">
+        <v>358.7354545454546</v>
+      </c>
+      <c r="H607" t="n">
+        <v>363.0266666666667</v>
+      </c>
+      <c r="I607" t="n">
+        <v>363.6754545454546</v>
+      </c>
+      <c r="J607" t="n">
+        <v>380.0854545454546</v>
+      </c>
+      <c r="K607" t="n">
+        <v>366.41</v>
+      </c>
+      <c r="L607" t="n">
+        <v>355.5628571428572</v>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>343.0372727272728</v>
+      </c>
+      <c r="C608" t="n">
+        <v>350.76</v>
+      </c>
+      <c r="D608" t="n">
+        <v>358.45</v>
+      </c>
+      <c r="E608" t="n">
+        <v>357.78</v>
+      </c>
+      <c r="F608" t="n">
+        <v>358.76</v>
+      </c>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>348.8</v>
+      </c>
+      <c r="C609" t="n">
+        <v>354.49</v>
+      </c>
+      <c r="D609" t="n">
+        <v>352.97</v>
+      </c>
+      <c r="E609" t="n">
+        <v>360.5466666666667</v>
+      </c>
+      <c r="F609" t="n">
+        <v>351.49</v>
+      </c>
+      <c r="G609" t="n">
+        <v>356.22</v>
+      </c>
+      <c r="H609" t="n">
+        <v>363.96</v>
+      </c>
+      <c r="I609" t="n">
+        <v>376.22</v>
+      </c>
+      <c r="J609" t="n">
+        <v>379.38</v>
+      </c>
+      <c r="K609" t="n">
+        <v>377.38</v>
+      </c>
+      <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>317.9363636363636</v>
+      </c>
+      <c r="C610" t="n">
+        <v>328.15</v>
+      </c>
+      <c r="D610" t="n">
+        <v>341.91</v>
+      </c>
+      <c r="E610" t="n">
+        <v>337.3833333333333</v>
+      </c>
+      <c r="F610" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="G610" t="n">
+        <v>343.7463636363636</v>
+      </c>
+      <c r="H610" t="n">
+        <v>357.21</v>
+      </c>
+      <c r="I610" t="n">
+        <v>375.9063636363636</v>
+      </c>
+      <c r="J610" t="n">
+        <v>379.0863636363636</v>
+      </c>
+      <c r="K610" t="n">
+        <v>376.26</v>
+      </c>
+      <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>332.3718181818182</v>
+      </c>
+      <c r="C611" t="n">
+        <v>354.34</v>
+      </c>
+      <c r="D611" t="n">
+        <v>360.64</v>
+      </c>
+      <c r="E611" t="n">
+        <v>356.8022222222222</v>
+      </c>
+      <c r="F611" t="n">
+        <v>345.47</v>
+      </c>
+      <c r="G611" t="n">
+        <v>356.4518181818182</v>
+      </c>
+      <c r="H611" t="n">
+        <v>354.9866666666667</v>
+      </c>
+      <c r="I611" t="n">
+        <v>364.6518181818182</v>
+      </c>
+      <c r="J611" t="n">
+        <v>370.4918181818182</v>
+      </c>
+      <c r="K611" t="n">
+        <v>361.4</v>
+      </c>
+      <c r="L611" t="n">
+        <v>348.7857142857143</v>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>334.7254545454546</v>
+      </c>
+      <c r="C612" t="n">
+        <v>350.58</v>
+      </c>
+      <c r="D612" t="n">
+        <v>363.85</v>
+      </c>
+      <c r="E612" t="n">
+        <v>366.1388888888889</v>
+      </c>
+      <c r="F612" t="n">
+        <v>364.87</v>
+      </c>
+      <c r="G612" t="n">
+        <v>356.4654545454546</v>
+      </c>
+      <c r="H612" t="n">
+        <v>355.1366666666667</v>
+      </c>
+      <c r="I612" t="n">
+        <v>366.9754545454546</v>
+      </c>
+      <c r="J612" t="n">
+        <v>374.0454545454546</v>
+      </c>
+      <c r="K612" t="n">
+        <v>380.69</v>
+      </c>
+      <c r="L612" t="n">
+        <v>373.2514285714286</v>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25350,7 +25649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31758,6 +32057,76 @@
       </c>
       <c r="B640" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -31931,28 +32300,28 @@
         <v>0.0648</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2273997335854055</v>
+        <v>-0.2037525586755949</v>
       </c>
       <c r="J2" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K2" t="n">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01633985764563195</v>
+        <v>0.01332084890594865</v>
       </c>
       <c r="M2" t="n">
-        <v>9.706824914426159</v>
+        <v>9.741591385756868</v>
       </c>
       <c r="N2" t="n">
-        <v>150.5122129013203</v>
+        <v>150.7920140354849</v>
       </c>
       <c r="O2" t="n">
-        <v>12.26834189698511</v>
+        <v>12.27973998240536</v>
       </c>
       <c r="P2" t="n">
-        <v>335.7915568741378</v>
+        <v>335.5362561368269</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32009,28 +32378,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2025350578165182</v>
+        <v>-0.1819782664050354</v>
       </c>
       <c r="J3" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K3" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0160947525549463</v>
+        <v>0.01319084000077686</v>
       </c>
       <c r="M3" t="n">
-        <v>8.853630095510576</v>
+        <v>8.89003870791317</v>
       </c>
       <c r="N3" t="n">
-        <v>122.0525295007905</v>
+        <v>122.2230782361518</v>
       </c>
       <c r="O3" t="n">
-        <v>11.04773866005123</v>
+        <v>11.05545468247018</v>
       </c>
       <c r="P3" t="n">
-        <v>346.171798593414</v>
+        <v>345.9506537782418</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32087,28 +32456,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2086802448310128</v>
+        <v>-0.1806617417725029</v>
       </c>
       <c r="J4" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01880146897238277</v>
+        <v>0.01427661871332586</v>
       </c>
       <c r="M4" t="n">
-        <v>8.331763411069669</v>
+        <v>8.370250253054536</v>
       </c>
       <c r="N4" t="n">
-        <v>111.1680507507862</v>
+        <v>111.6831650622349</v>
       </c>
       <c r="O4" t="n">
-        <v>10.54362607221947</v>
+        <v>10.56802559905278</v>
       </c>
       <c r="P4" t="n">
-        <v>351.5807922352944</v>
+        <v>351.2786410950295</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32165,28 +32534,28 @@
         <v>0.0503</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1525351100719438</v>
+        <v>-0.1239070574473867</v>
       </c>
       <c r="J5" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K5" t="n">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01001694367941686</v>
+        <v>0.006666832957799795</v>
       </c>
       <c r="M5" t="n">
-        <v>8.384798410180279</v>
+        <v>8.442948880905773</v>
       </c>
       <c r="N5" t="n">
-        <v>114.2317398192791</v>
+        <v>115.1308675596744</v>
       </c>
       <c r="O5" t="n">
-        <v>10.687924953857</v>
+        <v>10.72990529127235</v>
       </c>
       <c r="P5" t="n">
-        <v>349.6527486697415</v>
+        <v>349.346666724738</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32243,28 +32612,28 @@
         <v>0.0524</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07352451625369839</v>
+        <v>-0.05044886424319579</v>
       </c>
       <c r="J6" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K6" t="n">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00265904835325903</v>
+        <v>0.001261186347494392</v>
       </c>
       <c r="M6" t="n">
-        <v>8.091646225303906</v>
+        <v>8.130450985537401</v>
       </c>
       <c r="N6" t="n">
-        <v>101.3759148080777</v>
+        <v>102.0898915611021</v>
       </c>
       <c r="O6" t="n">
-        <v>10.06856071184346</v>
+        <v>10.10395425371187</v>
       </c>
       <c r="P6" t="n">
-        <v>346.7444367398607</v>
+        <v>346.4989939102639</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32321,28 +32690,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0181901821535218</v>
+        <v>-0.0001906624716919516</v>
       </c>
       <c r="J7" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K7" t="n">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001283239418852222</v>
+        <v>1.430454155126881e-08</v>
       </c>
       <c r="M7" t="n">
-        <v>8.851298844672741</v>
+        <v>8.839389453365341</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4470584904409</v>
+        <v>128.992359603297</v>
       </c>
       <c r="O7" t="n">
-        <v>11.37748032256883</v>
+        <v>11.35748033690999</v>
       </c>
       <c r="P7" t="n">
-        <v>345.8414379486622</v>
+        <v>345.650275863639</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32399,28 +32768,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2469084911551665</v>
+        <v>0.2615872337122531</v>
       </c>
       <c r="J8" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K8" t="n">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0252510265988185</v>
+        <v>0.02873827134557427</v>
       </c>
       <c r="M8" t="n">
-        <v>8.561375831931777</v>
+        <v>8.535890989655714</v>
       </c>
       <c r="N8" t="n">
-        <v>116.6064771145918</v>
+        <v>115.9008143362504</v>
       </c>
       <c r="O8" t="n">
-        <v>10.79844790303643</v>
+        <v>10.76572405071997</v>
       </c>
       <c r="P8" t="n">
-        <v>345.1907152572018</v>
+        <v>345.034067256728</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32477,28 +32846,28 @@
         <v>0.0609</v>
       </c>
       <c r="I9" t="n">
-        <v>0.298503341747216</v>
+        <v>0.3235786050047542</v>
       </c>
       <c r="J9" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K9" t="n">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02848565694936311</v>
+        <v>0.03367135608392835</v>
       </c>
       <c r="M9" t="n">
-        <v>9.816841093115912</v>
+        <v>9.818211190823337</v>
       </c>
       <c r="N9" t="n">
-        <v>152.5227830941681</v>
+        <v>152.4863539384244</v>
       </c>
       <c r="O9" t="n">
-        <v>12.35001146129703</v>
+        <v>12.34853650998467</v>
       </c>
       <c r="P9" t="n">
-        <v>349.5686155834139</v>
+        <v>349.3020332886308</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32555,28 +32924,28 @@
         <v>0.0596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3488923126897807</v>
+        <v>0.3760108929426136</v>
       </c>
       <c r="J10" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K10" t="n">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03433118342114982</v>
+        <v>0.04017270979641485</v>
       </c>
       <c r="M10" t="n">
-        <v>10.4670104917734</v>
+        <v>10.47831770596327</v>
       </c>
       <c r="N10" t="n">
-        <v>170.8977175250131</v>
+        <v>170.6069463981171</v>
       </c>
       <c r="O10" t="n">
-        <v>13.07278537745545</v>
+        <v>13.06165940445995</v>
       </c>
       <c r="P10" t="n">
-        <v>355.5981701170687</v>
+        <v>355.3117290315745</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32633,28 +33002,28 @@
         <v>0.0431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1701354748484864</v>
+        <v>0.1892461651994164</v>
       </c>
       <c r="J11" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K11" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007193472475556129</v>
+        <v>0.009033431908097911</v>
       </c>
       <c r="M11" t="n">
-        <v>11.17148665799646</v>
+        <v>11.14197375402054</v>
       </c>
       <c r="N11" t="n">
-        <v>199.3286219264487</v>
+        <v>198.2886157118763</v>
       </c>
       <c r="O11" t="n">
-        <v>14.11837887033949</v>
+        <v>14.08149905769539</v>
       </c>
       <c r="P11" t="n">
-        <v>359.1870707513963</v>
+        <v>358.9838264474325</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32711,28 +33080,28 @@
         <v>0.0373</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4708096955464582</v>
+        <v>-0.4579239742092815</v>
       </c>
       <c r="J12" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="K12" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03463637996266178</v>
+        <v>0.0332325648113988</v>
       </c>
       <c r="M12" t="n">
-        <v>13.58933027753278</v>
+        <v>13.55303181922314</v>
       </c>
       <c r="N12" t="n">
-        <v>310.305117804628</v>
+        <v>308.8828201584286</v>
       </c>
       <c r="O12" t="n">
-        <v>17.61547949403104</v>
+        <v>17.57506245105344</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9196265908294</v>
+        <v>363.7831637726825</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32770,7 +33139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M605"/>
+  <dimension ref="A1:M612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68625,6 +68994,443 @@
         </is>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:19+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-45.562787010868504,170.73176735588163</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-45.56332436070737,170.73129682004574</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-45.56389943543146,170.73092299077985</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-45.564426774640935,170.73046494953786</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-45.56500187265402,170.73010557058916</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-45.56552931817235,170.7296107331051</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-45.56611597095683,170.7292898094327</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>-45.566724087023694,170.7290421560129</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>-45.56733999538835,170.72886468490893</t>
+        </is>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>-45.56791579073066,170.7285233363804</t>
+        </is>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>-45.56847588270706,170.72812233482742</t>
+        </is>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-45.562818539313106,170.73183060023067</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-45.56337502898092,170.73139845801524</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-45.56391045853992,170.73094777324846</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-45.56445570242482,170.73054139558752</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-45.565010605626476,170.73012971354837</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-45.56556975066369,170.72972666445426</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-45.56615384909091,170.72940652045924</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>-45.56673183498242,170.72906731549216</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>-45.56735721156317,170.72892874786845</t>
+        </is>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>-45.56790941826968,170.72849855609888</t>
+        </is>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>-45.56845694397513,170.72805475291432</t>
+        </is>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-45.562788866597714,170.73177107836986</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-45.56334873148089,170.7313457065281</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-45.56390131272977,170.73092721137425</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-45.564441639194364,170.7305042313449</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-45.56500726897251,170.73012048911494</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr"/>
+      <c r="H608" t="inlineStr"/>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:19:58+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-45.56281887542698,170.73183127445756</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-45.56336815518121,170.73138466950292</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-45.56387493426772,170.7308679066381</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-45.56445344548101,170.7305354312641</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-45.56497732144062,170.73003769702785</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-45.56555968529399,170.7296978041556</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-45.56615737146212,170.72941737370135</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>-45.566777156655256,170.72921448632303</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>-45.56735494335607,170.72892030765277</t>
+        </is>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>-45.56794335311034,170.72863051717923</t>
+        </is>
+      </c>
+      <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-45.5626581557519,170.73150888095856</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-45.563230991296,170.73110952671703</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-45.56382169589389,170.730748215134</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-45.564354599579204,170.73027421692984</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-45.56491454265572,170.72986414141724</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-45.565509773032126,170.7295546918579</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-45.566131897147635,170.7293388815352</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>-45.566776023533585,170.72921080678267</t>
+        </is>
+      </c>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>-45.56735399924393,170.728916794522</t>
+        </is>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>-45.567939888484425,170.7286170443905</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-45.56273332722281,170.7316596697221</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-45.5633673740675,170.73138310262672</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-45.56391185447906,170.73095091164038</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-45.56443746668947,170.73049320487064</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-45.564952523027436,170.72996914023688</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-45.565560612894316,170.72970046385018</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-45.566123506337206,170.72931302758823</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>-45.566735362453144,170.72907877004337</t>
+        </is>
+      </c>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>-45.56732636564806,170.72881396752155</t>
+        </is>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>-45.56789392017507,170.7284382895161</t>
+        </is>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>-45.56843434700625,170.7279741170108</t>
+        </is>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-45.562745583577026,170.73168425519475</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-45.56334779414382,170.73134382627796</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-45.56392730607555,170.73098565040286</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-45.564477309327415,170.7305984952378</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-45.565032438035885,170.7301900709797</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-45.56556066745904,170.72970062030282</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-45.56612407243403,170.7293147718573</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>-45.566743757434814,170.72910603060134</t>
+        </is>
+      </c>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>-45.56733779148159,170.7288564839829</t>
+        </is>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>-45.56795359230816,170.7286703340917</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>-45.568515922563094,170.72826521565577</t>
+        </is>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M612"/>
+  <dimension ref="A1:M616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25638,6 +25638,186 @@
         </is>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>335.1818181818182</v>
+      </c>
+      <c r="C613" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="D613" t="n">
+        <v>362.68</v>
+      </c>
+      <c r="E613" t="n">
+        <v>360.9644444444445</v>
+      </c>
+      <c r="F613" t="n">
+        <v>361.63</v>
+      </c>
+      <c r="G613" t="n">
+        <v>354.8818181818182</v>
+      </c>
+      <c r="H613" t="n">
+        <v>359.9933333333333</v>
+      </c>
+      <c r="I613" t="n">
+        <v>365.7318181818182</v>
+      </c>
+      <c r="J613" t="n">
+        <v>377.9418181818182</v>
+      </c>
+      <c r="K613" t="n">
+        <v>376.85</v>
+      </c>
+      <c r="L613" t="n">
+        <v>368.48</v>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>336.7954545454546</v>
+      </c>
+      <c r="C614" t="n">
+        <v>341.9</v>
+      </c>
+      <c r="D614" t="n">
+        <v>352.62</v>
+      </c>
+      <c r="E614" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="F614" t="n">
+        <v>356.55</v>
+      </c>
+      <c r="G614" t="n">
+        <v>353.6154545454545</v>
+      </c>
+      <c r="H614" t="n">
+        <v>357.4</v>
+      </c>
+      <c r="I614" t="n">
+        <v>362.9654545454546</v>
+      </c>
+      <c r="J614" t="n">
+        <v>370.2854545454546</v>
+      </c>
+      <c r="K614" t="n">
+        <v>364.12</v>
+      </c>
+      <c r="L614" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>334.7581818181818</v>
+      </c>
+      <c r="C615" t="n">
+        <v>349.11</v>
+      </c>
+      <c r="D615" t="n">
+        <v>354.99</v>
+      </c>
+      <c r="E615" t="n">
+        <v>357.73</v>
+      </c>
+      <c r="F615" t="n">
+        <v>364.01</v>
+      </c>
+      <c r="G615" t="n">
+        <v>356.8981818181818</v>
+      </c>
+      <c r="H615" t="n">
+        <v>356.52</v>
+      </c>
+      <c r="I615" t="n">
+        <v>366.0381818181818</v>
+      </c>
+      <c r="J615" t="n">
+        <v>378.7381818181818</v>
+      </c>
+      <c r="K615" t="n">
+        <v>382.31</v>
+      </c>
+      <c r="L615" t="n">
+        <v>375.8085714285714</v>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>337.4081818181818</v>
+      </c>
+      <c r="C616" t="n">
+        <v>342.41</v>
+      </c>
+      <c r="D616" t="n">
+        <v>347.0700000000001</v>
+      </c>
+      <c r="E616" t="n">
+        <v>347.4111111111111</v>
+      </c>
+      <c r="F616" t="n">
+        <v>355.26</v>
+      </c>
+      <c r="G616" t="n">
+        <v>356.7681818181818</v>
+      </c>
+      <c r="H616" t="n">
+        <v>350.7933333333333</v>
+      </c>
+      <c r="I616" t="n">
+        <v>361.1481818181818</v>
+      </c>
+      <c r="J616" t="n">
+        <v>371.6981818181818</v>
+      </c>
+      <c r="K616" t="n">
+        <v>367.22</v>
+      </c>
+      <c r="L616" t="n">
+        <v>361.3371428571429</v>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25649,7 +25829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B647"/>
+  <dimension ref="A1:B651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32127,6 +32307,46 @@
       </c>
       <c r="B647" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -32300,28 +32520,28 @@
         <v>0.0648</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2037525586755949</v>
+        <v>-0.1945329219403474</v>
       </c>
       <c r="J2" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K2" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01332084890594865</v>
+        <v>0.01232845735621579</v>
       </c>
       <c r="M2" t="n">
-        <v>9.741591385756868</v>
+        <v>9.710967676709794</v>
       </c>
       <c r="N2" t="n">
-        <v>150.7920140354849</v>
+        <v>149.8413470159213</v>
       </c>
       <c r="O2" t="n">
-        <v>12.27973998240536</v>
+        <v>12.24097001940293</v>
       </c>
       <c r="P2" t="n">
-        <v>335.5362561368269</v>
+        <v>335.4359274851477</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32378,28 +32598,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1819782664050354</v>
+        <v>-0.1725830986585049</v>
       </c>
       <c r="J3" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K3" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01319084000077686</v>
+        <v>0.012006852580844</v>
       </c>
       <c r="M3" t="n">
-        <v>8.89003870791317</v>
+        <v>8.869637949747046</v>
       </c>
       <c r="N3" t="n">
-        <v>122.2230782361518</v>
+        <v>121.8306193111278</v>
       </c>
       <c r="O3" t="n">
-        <v>11.05545468247018</v>
+        <v>11.03769085049621</v>
       </c>
       <c r="P3" t="n">
-        <v>345.9506537782418</v>
+        <v>345.8490273265691</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32456,28 +32676,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1806617417725029</v>
+        <v>-0.1688889464932798</v>
       </c>
       <c r="J4" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K4" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01427661871332586</v>
+        <v>0.01260883354606324</v>
       </c>
       <c r="M4" t="n">
-        <v>8.370250253054536</v>
+        <v>8.362272161087196</v>
       </c>
       <c r="N4" t="n">
-        <v>111.6831650622349</v>
+        <v>111.5093529665144</v>
       </c>
       <c r="O4" t="n">
-        <v>10.56802559905278</v>
+        <v>10.55979890748467</v>
       </c>
       <c r="P4" t="n">
-        <v>351.2786410950295</v>
+        <v>351.1509897653003</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32534,28 +32754,28 @@
         <v>0.0503</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1239070574473867</v>
+        <v>-0.1123403101723907</v>
       </c>
       <c r="J5" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K5" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006666832957799795</v>
+        <v>0.005536583113106341</v>
       </c>
       <c r="M5" t="n">
-        <v>8.442948880905773</v>
+        <v>8.434114198470505</v>
       </c>
       <c r="N5" t="n">
-        <v>115.1308675596744</v>
+        <v>114.9226463308628</v>
       </c>
       <c r="O5" t="n">
-        <v>10.72990529127235</v>
+        <v>10.72019805464726</v>
       </c>
       <c r="P5" t="n">
-        <v>349.346666724738</v>
+        <v>349.2223258833505</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32612,28 +32832,28 @@
         <v>0.0524</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05044886424319579</v>
+        <v>-0.02879386726269352</v>
       </c>
       <c r="J6" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K6" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001261186347494392</v>
+        <v>0.000410776021728454</v>
       </c>
       <c r="M6" t="n">
-        <v>8.130450985537401</v>
+        <v>8.177710398014991</v>
       </c>
       <c r="N6" t="n">
-        <v>102.0898915611021</v>
+        <v>102.9385177130571</v>
       </c>
       <c r="O6" t="n">
-        <v>10.10395425371187</v>
+        <v>10.14586209807018</v>
       </c>
       <c r="P6" t="n">
-        <v>346.4989939102639</v>
+        <v>346.2670684839209</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32690,28 +32910,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0001906624716919516</v>
+        <v>0.01449390802931847</v>
       </c>
       <c r="J7" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K7" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L7" t="n">
-        <v>1.430454155126881e-08</v>
+        <v>8.340420964347839e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.839389453365341</v>
+        <v>8.840202294263618</v>
       </c>
       <c r="N7" t="n">
-        <v>128.992359603297</v>
+        <v>128.7509406759519</v>
       </c>
       <c r="O7" t="n">
-        <v>11.35748033690999</v>
+        <v>11.34684716896953</v>
       </c>
       <c r="P7" t="n">
-        <v>345.650275863639</v>
+        <v>345.4934326729455</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32768,28 +32988,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2615872337122531</v>
+        <v>0.2682811787191812</v>
       </c>
       <c r="J8" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K8" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02873827134557427</v>
+        <v>0.03057150068473358</v>
       </c>
       <c r="M8" t="n">
-        <v>8.535890989655714</v>
+        <v>8.508470890185308</v>
       </c>
       <c r="N8" t="n">
-        <v>115.9008143362504</v>
+        <v>115.2364791351876</v>
       </c>
       <c r="O8" t="n">
-        <v>10.76572405071997</v>
+        <v>10.73482552886574</v>
       </c>
       <c r="P8" t="n">
-        <v>345.034067256728</v>
+        <v>344.9622689297587</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32846,28 +33066,28 @@
         <v>0.0609</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3235786050047542</v>
+        <v>0.3331429435867022</v>
       </c>
       <c r="J9" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K9" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03367135608392835</v>
+        <v>0.03606290406510992</v>
       </c>
       <c r="M9" t="n">
-        <v>9.818211190823337</v>
+        <v>9.785878365858201</v>
       </c>
       <c r="N9" t="n">
-        <v>152.4863539384244</v>
+        <v>151.6328861182776</v>
       </c>
       <c r="O9" t="n">
-        <v>12.34853650998467</v>
+        <v>12.31393057144134</v>
       </c>
       <c r="P9" t="n">
-        <v>349.3020332886308</v>
+        <v>349.1998538714883</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32924,28 +33144,28 @@
         <v>0.0596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3760108929426136</v>
+        <v>0.3907189814624404</v>
       </c>
       <c r="J10" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K10" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04017270979641485</v>
+        <v>0.04368160625543527</v>
       </c>
       <c r="M10" t="n">
-        <v>10.47831770596327</v>
+        <v>10.47012004273023</v>
       </c>
       <c r="N10" t="n">
-        <v>170.6069463981171</v>
+        <v>170.1036887320317</v>
       </c>
       <c r="O10" t="n">
-        <v>13.06165940445995</v>
+        <v>13.04238048563343</v>
       </c>
       <c r="P10" t="n">
-        <v>355.3117290315745</v>
+        <v>355.1554549311463</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33002,28 +33222,28 @@
         <v>0.0431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1892461651994164</v>
+        <v>0.2026461959813174</v>
       </c>
       <c r="J11" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K11" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009033431908097911</v>
+        <v>0.0104499114633626</v>
       </c>
       <c r="M11" t="n">
-        <v>11.14197375402054</v>
+        <v>11.12050341589334</v>
       </c>
       <c r="N11" t="n">
-        <v>198.2886157118763</v>
+        <v>197.741337212643</v>
       </c>
       <c r="O11" t="n">
-        <v>14.08149905769539</v>
+        <v>14.06205309379263</v>
       </c>
       <c r="P11" t="n">
-        <v>358.9838264474325</v>
+        <v>358.8406843816367</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33080,28 +33300,28 @@
         <v>0.0373</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4579239742092815</v>
+        <v>-0.4331252073939572</v>
       </c>
       <c r="J12" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K12" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0332325648113988</v>
+        <v>0.03010787965333606</v>
       </c>
       <c r="M12" t="n">
-        <v>13.55303181922314</v>
+        <v>13.56413537307219</v>
       </c>
       <c r="N12" t="n">
-        <v>308.8828201584286</v>
+        <v>308.4695655055323</v>
       </c>
       <c r="O12" t="n">
-        <v>17.57506245105344</v>
+        <v>17.56330166869351</v>
       </c>
       <c r="P12" t="n">
-        <v>363.7831637726825</v>
+        <v>363.5192131289599</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33139,7 +33359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M612"/>
+  <dimension ref="A1:M616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69431,6 +69651,274 @@
         </is>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-45.56274796004991,170.73168902225171</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-45.56337752854405,170.7314034720206</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-45.56392167418643,170.7309729886087</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-45.56445522827699,170.73054014257835</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-45.5650190914346,170.73015317322353</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-45.565554330674466,170.72968245093992</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-45.566142401377526,170.72937124743197</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>-45.56673926434682,170.72909144044252</t>
+        </is>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>-45.56735031925156,170.72890310092666</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>-45.56794171360006,170.72862414166292</t>
+        </is>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>-45.56850001333841,170.72820844404296</t>
+        </is>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-45.56275636291561,170.73170587788474</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-45.56330259363187,170.7312531565143</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-45.56387324951094,170.73086411892876</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-45.56440289175675,170.73040183555906</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-45.56499816525854,170.73009532122202</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-45.56554926342738,170.7296679217107</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-45.566132614203134,170.72934109094334</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>-45.566729269847045,170.72905898588</t>
+        </is>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>-45.56732570213666,170.72881149854365</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>-45.56790233431413,170.72847100909374</t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>-45.568483742078776,170.72815038065517</t>
+        </is>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-45.56274575400139,170.7316845970554</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-45.56334013922331,170.73132847090443</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-45.563884657718894,170.7308897671365</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-45.56444142582767,170.73050366749106</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-45.565028895420625,170.7301802771291</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-45.565562398979466,170.72970558506628</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-45.56612929310362,170.72933085789566</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>-45.566740371196886,170.7290950346554</t>
+        </is>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>-45.56735287975476,170.72891262879742</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>-45.56795860363263,170.7286898215286</t>
+        </is>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>-45.56852444875297,170.72829564117438</t>
+        </is>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-45.562759553636944,170.73171227827856</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-45.563305249424246,170.73125848388113</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-45.56384653406536,170.73080405671138</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-45.56439739162376,170.73038730068185</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-45.56499285132347,170.73008063046484</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-45.56556187879583,170.72970409355116</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-45.56610768077511,170.72926426559278</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>-45.56672270428017,170.72903766591583</t>
+        </is>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>-45.56733024441192,170.7288284007107</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>-45.56791192394671,170.72850829980115</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>-45.56847619708206,170.72812345666037</t>
+        </is>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -40772,7 +40772,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-45.56335102274916,170.7313503026953</t>
+          <t>-45.56335102274915,170.7313503026953</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -43423,7 +43423,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-45.56391069921909,170.7309483143505</t>
+          <t>-45.563910699219086,170.7309483143505</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -44277,7 +44277,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-45.562833219437714,170.73186004781155</t>
+          <t>-45.56283321943771,170.73186004781155</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -50984,7 +50984,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>-45.567310929494724,170.7287565284522</t>
+          <t>-45.56731092949473,170.7287565284522</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -59629,7 +59629,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>-45.56553263571442,170.7296202454145</t>
+          <t>-45.565532635714426,170.7296202454145</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -60112,7 +60112,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-45.563414136704736,170.73147690635844</t>
+          <t>-45.56341413670474,170.73147690635844</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -64280,7 +64280,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>-45.565420038922845,170.72929740119224</t>
+          <t>-45.56542003892284,170.72929740119224</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M616"/>
+  <dimension ref="A1:M618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25818,6 +25818,86 @@
         </is>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>318.51</v>
+      </c>
+      <c r="C617" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="D617" t="n">
+        <v>344.85</v>
+      </c>
+      <c r="E617" t="n">
+        <v>340.2288888888889</v>
+      </c>
+      <c r="F617" t="n">
+        <v>333.4299999999999</v>
+      </c>
+      <c r="G617" t="n">
+        <v>339.01</v>
+      </c>
+      <c r="H617" t="n">
+        <v>337.1666666666667</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>348.38</v>
+      </c>
+      <c r="K617" t="n">
+        <v>348.95</v>
+      </c>
+      <c r="L617" t="n">
+        <v>313.2957142857143</v>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>331.6945454545454</v>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="n">
+        <v>340.8145454545455</v>
+      </c>
+      <c r="H618" t="n">
+        <v>353.4333333333333</v>
+      </c>
+      <c r="I618" t="n">
+        <v>340.4645454545454</v>
+      </c>
+      <c r="J618" t="n">
+        <v>336.0945454545454</v>
+      </c>
+      <c r="K618" t="n">
+        <v>330.64</v>
+      </c>
+      <c r="L618" t="n">
+        <v>324.0785714285714</v>
+      </c>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25829,7 +25909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B651"/>
+  <dimension ref="A1:B653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32347,6 +32427,26 @@
       </c>
       <c r="B651" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -32520,28 +32620,28 @@
         <v>0.0648</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1945329219403474</v>
+        <v>-0.1987732302552766</v>
       </c>
       <c r="J2" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K2" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01232845735621579</v>
+        <v>0.01294095326951972</v>
       </c>
       <c r="M2" t="n">
-        <v>9.710967676709794</v>
+        <v>9.697495746282915</v>
       </c>
       <c r="N2" t="n">
-        <v>149.8413470159213</v>
+        <v>149.5251152625181</v>
       </c>
       <c r="O2" t="n">
-        <v>12.24097001940293</v>
+        <v>12.22804625696673</v>
       </c>
       <c r="P2" t="n">
-        <v>335.4359274851477</v>
+        <v>335.4821805969607</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32598,28 +32698,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1725830986585049</v>
+        <v>-0.1708488974035371</v>
       </c>
       <c r="J3" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K3" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L3" t="n">
-        <v>0.012006852580844</v>
+        <v>0.01181000412499478</v>
       </c>
       <c r="M3" t="n">
-        <v>8.869637949747046</v>
+        <v>8.861457747294718</v>
       </c>
       <c r="N3" t="n">
-        <v>121.8306193111278</v>
+        <v>121.6357430283037</v>
       </c>
       <c r="O3" t="n">
-        <v>11.03769085049621</v>
+        <v>11.02885955247884</v>
       </c>
       <c r="P3" t="n">
-        <v>345.8490273265691</v>
+        <v>345.8302059842041</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32676,28 +32776,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1688889464932798</v>
+        <v>-0.1696335241516405</v>
       </c>
       <c r="J4" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K4" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01260883354606324</v>
+        <v>0.01276529128872217</v>
       </c>
       <c r="M4" t="n">
-        <v>8.362272161087196</v>
+        <v>8.349864326667451</v>
       </c>
       <c r="N4" t="n">
-        <v>111.5093529665144</v>
+        <v>111.298923755206</v>
       </c>
       <c r="O4" t="n">
-        <v>10.55979890748467</v>
+        <v>10.54983050836392</v>
       </c>
       <c r="P4" t="n">
-        <v>351.1509897653003</v>
+        <v>351.1590908772806</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32754,28 +32854,28 @@
         <v>0.0503</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1123403101723907</v>
+        <v>-0.114680602073057</v>
       </c>
       <c r="J5" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K5" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005536583113106341</v>
+        <v>0.005786392391342488</v>
       </c>
       <c r="M5" t="n">
-        <v>8.434114198470505</v>
+        <v>8.42973718892606</v>
       </c>
       <c r="N5" t="n">
-        <v>114.9226463308628</v>
+        <v>114.7679658718886</v>
       </c>
       <c r="O5" t="n">
-        <v>10.72019805464726</v>
+        <v>10.71298118508049</v>
       </c>
       <c r="P5" t="n">
-        <v>349.2223258833505</v>
+        <v>349.2475666135587</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32832,28 +32932,28 @@
         <v>0.0524</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02879386726269352</v>
+        <v>-0.0334181639178203</v>
       </c>
       <c r="J6" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K6" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000410776021728454</v>
+        <v>0.0005537729969273819</v>
       </c>
       <c r="M6" t="n">
-        <v>8.177710398014991</v>
+        <v>8.185032267847744</v>
       </c>
       <c r="N6" t="n">
-        <v>102.9385177130571</v>
+        <v>103.0228508648264</v>
       </c>
       <c r="O6" t="n">
-        <v>10.14586209807018</v>
+        <v>10.15001728396688</v>
       </c>
       <c r="P6" t="n">
-        <v>346.2670684839209</v>
+        <v>346.3167359124054</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32910,28 +33010,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01449390802931847</v>
+        <v>0.01009753713958519</v>
       </c>
       <c r="J7" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K7" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L7" t="n">
-        <v>8.340420964347839e-05</v>
+        <v>4.073760550338257e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.840202294263618</v>
+        <v>8.831060014608152</v>
       </c>
       <c r="N7" t="n">
-        <v>128.7509406759519</v>
+        <v>128.3951154736997</v>
       </c>
       <c r="O7" t="n">
-        <v>11.34684716896953</v>
+        <v>11.33115684622271</v>
       </c>
       <c r="P7" t="n">
-        <v>345.4934326729455</v>
+        <v>345.5405299928137</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32988,28 +33088,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2682811787191812</v>
+        <v>0.2633116516440249</v>
       </c>
       <c r="J8" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K8" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03057150068473358</v>
+        <v>0.02959373593178316</v>
       </c>
       <c r="M8" t="n">
-        <v>8.508470890185308</v>
+        <v>8.506396591552525</v>
       </c>
       <c r="N8" t="n">
-        <v>115.2364791351876</v>
+        <v>115.2120753162736</v>
       </c>
       <c r="O8" t="n">
-        <v>10.73482552886574</v>
+        <v>10.73368880284283</v>
       </c>
       <c r="P8" t="n">
-        <v>344.9622689297587</v>
+        <v>345.0157528404049</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33066,28 +33166,28 @@
         <v>0.0609</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3331429435867022</v>
+        <v>0.3265970647729883</v>
       </c>
       <c r="J9" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K9" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03606290406510992</v>
+        <v>0.03470527355743502</v>
       </c>
       <c r="M9" t="n">
-        <v>9.785878365858201</v>
+        <v>9.803883297059912</v>
       </c>
       <c r="N9" t="n">
-        <v>151.6328861182776</v>
+        <v>151.9199672781528</v>
       </c>
       <c r="O9" t="n">
-        <v>12.31393057144134</v>
+        <v>12.32558182310891</v>
       </c>
       <c r="P9" t="n">
-        <v>349.1998538714883</v>
+        <v>349.2700581963619</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33144,28 +33244,28 @@
         <v>0.0596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3907189814624404</v>
+        <v>0.3733302917854719</v>
       </c>
       <c r="J10" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K10" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04368160625543527</v>
+        <v>0.03984091336114348</v>
       </c>
       <c r="M10" t="n">
-        <v>10.47012004273023</v>
+        <v>10.51991662133693</v>
       </c>
       <c r="N10" t="n">
-        <v>170.1036887320317</v>
+        <v>171.6051222183124</v>
       </c>
       <c r="O10" t="n">
-        <v>13.04238048563343</v>
+        <v>13.09981382380347</v>
       </c>
       <c r="P10" t="n">
-        <v>355.1554549311463</v>
+        <v>355.3408314063113</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33222,28 +33322,28 @@
         <v>0.0431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2026461959813174</v>
+        <v>0.184187339577018</v>
       </c>
       <c r="J11" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K11" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0104499114633626</v>
+        <v>0.008601422797187341</v>
       </c>
       <c r="M11" t="n">
-        <v>11.12050341589334</v>
+        <v>11.17508025138095</v>
       </c>
       <c r="N11" t="n">
-        <v>197.741337212643</v>
+        <v>199.5713122779299</v>
       </c>
       <c r="O11" t="n">
-        <v>14.06205309379263</v>
+        <v>14.12697109354762</v>
       </c>
       <c r="P11" t="n">
-        <v>358.8406843816367</v>
+        <v>359.0385575286235</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33300,28 +33400,28 @@
         <v>0.0373</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4331252073939572</v>
+        <v>-0.4602455617167321</v>
       </c>
       <c r="J12" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K12" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03010787965333606</v>
+        <v>0.03362794430798566</v>
       </c>
       <c r="M12" t="n">
-        <v>13.56413537307219</v>
+        <v>13.64951959262557</v>
       </c>
       <c r="N12" t="n">
-        <v>308.4695655055323</v>
+        <v>311.9477708464145</v>
       </c>
       <c r="O12" t="n">
-        <v>17.56330166869351</v>
+        <v>17.66204322399916</v>
       </c>
       <c r="P12" t="n">
-        <v>363.5192131289599</v>
+        <v>363.8087842658375</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33359,7 +33459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M616"/>
+  <dimension ref="A1:M618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69919,6 +70019,120 @@
         </is>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:14:06+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-45.562661142920895,170.73151487299754</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-45.56332363166682,170.73129535763027</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-45.563835847878565,170.7307800318406</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-45.56436674257378,170.7303063063845</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-45.56490292608073,170.72983202683963</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-45.56549082080466,170.7295003507647</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-45.56605625384782,170.7291058086819</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>-45.56725527024944,170.7285494174249</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>-45.56785540681072,170.7282885254017</t>
+        </is>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>-45.568316012094606,170.72755185044386</t>
+        </is>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-45.56272980038374,170.7316525951095</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr"/>
+      <c r="E618" t="inlineStr"/>
+      <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-45.565498041569924,170.72952105461252</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-45.566117644088436,170.72929496471545</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>-45.56664797675339,170.7287950090339</t>
+        </is>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>-45.567215768973455,170.72840243215288</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>-45.567798765520585,170.72806827028916</t>
+        </is>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>-45.56835196572072,170.7276801466742</t>
+        </is>
+      </c>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M618"/>
+  <dimension ref="A1:M623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25898,6 +25898,211 @@
         </is>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>327.0754545454545</v>
+      </c>
+      <c r="C619" t="n">
+        <v>349.95</v>
+      </c>
+      <c r="D619" t="n">
+        <v>351.27</v>
+      </c>
+      <c r="E619" t="n">
+        <v>352.1811111111111</v>
+      </c>
+      <c r="F619" t="n">
+        <v>343.49</v>
+      </c>
+      <c r="G619" t="n">
+        <v>357.0654545454545</v>
+      </c>
+      <c r="H619" t="n">
+        <v>348.3233333333333</v>
+      </c>
+      <c r="I619" t="n">
+        <v>353.0554545454545</v>
+      </c>
+      <c r="J619" t="n">
+        <v>351.1754545454546</v>
+      </c>
+      <c r="K619" t="n">
+        <v>363.74</v>
+      </c>
+      <c r="L619" t="n">
+        <v>346.39</v>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>323.9272727272727</v>
+      </c>
+      <c r="C620" t="n">
+        <v>345.65</v>
+      </c>
+      <c r="D620" t="n">
+        <v>347.61</v>
+      </c>
+      <c r="E620" t="n">
+        <v>348.54</v>
+      </c>
+      <c r="F620" t="n">
+        <v>340.97</v>
+      </c>
+      <c r="G620" t="n">
+        <v>349.4372727272727</v>
+      </c>
+      <c r="H620" t="n">
+        <v>350.9</v>
+      </c>
+      <c r="I620" t="n">
+        <v>347.3372727272728</v>
+      </c>
+      <c r="J620" t="n">
+        <v>347.8672727272727</v>
+      </c>
+      <c r="K620" t="n">
+        <v>355.01</v>
+      </c>
+      <c r="L620" t="n">
+        <v>349.1071428571428</v>
+      </c>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>324.2745454545454</v>
+      </c>
+      <c r="C621" t="n">
+        <v>349.26</v>
+      </c>
+      <c r="D621" t="n">
+        <v>352.66</v>
+      </c>
+      <c r="E621" t="n">
+        <v>349.0822222222222</v>
+      </c>
+      <c r="F621" t="n">
+        <v>345.65</v>
+      </c>
+      <c r="G621" t="n">
+        <v>348.6245454545455</v>
+      </c>
+      <c r="H621" t="n">
+        <v>354.8366666666667</v>
+      </c>
+      <c r="I621" t="n">
+        <v>350.8645454545455</v>
+      </c>
+      <c r="J621" t="n">
+        <v>351.6745454545455</v>
+      </c>
+      <c r="K621" t="n">
+        <v>354.29</v>
+      </c>
+      <c r="L621" t="n">
+        <v>355.2885714285715</v>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:06+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="n">
+        <v>365.0736363636364</v>
+      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>321.0181818181818</v>
+      </c>
+      <c r="C623" t="n">
+        <v>335.8200000000001</v>
+      </c>
+      <c r="D623" t="n">
+        <v>337.85</v>
+      </c>
+      <c r="E623" t="n">
+        <v>340.3933333333333</v>
+      </c>
+      <c r="F623" t="n">
+        <v>336.98</v>
+      </c>
+      <c r="G623" t="n">
+        <v>346.3481818181818</v>
+      </c>
+      <c r="H623" t="n">
+        <v>342.67</v>
+      </c>
+      <c r="I623" t="n">
+        <v>334.9881818181818</v>
+      </c>
+      <c r="J623" t="n">
+        <v>342.5581818181818</v>
+      </c>
+      <c r="K623" t="n">
+        <v>345.69</v>
+      </c>
+      <c r="L623" t="n">
+        <v>341.8614285714286</v>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25909,7 +26114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B653"/>
+  <dimension ref="A1:B658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32447,6 +32652,56 @@
       </c>
       <c r="B653" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.12</v>
       </c>
     </row>
   </sheetData>
@@ -32620,28 +32875,28 @@
         <v>0.0648</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1987732302552766</v>
+        <v>-0.2086199555216004</v>
       </c>
       <c r="J2" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01294095326951972</v>
+        <v>0.0144242521237159</v>
       </c>
       <c r="M2" t="n">
-        <v>9.697495746282915</v>
+        <v>9.667507498169627</v>
       </c>
       <c r="N2" t="n">
-        <v>149.5251152625181</v>
+        <v>148.6727339713183</v>
       </c>
       <c r="O2" t="n">
-        <v>12.22804625696673</v>
+        <v>12.19314290785269</v>
       </c>
       <c r="P2" t="n">
-        <v>335.4821805969607</v>
+        <v>335.5899902985674</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32698,28 +32953,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1708488974035371</v>
+        <v>-0.1652180722849403</v>
       </c>
       <c r="J3" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K3" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01181000412499478</v>
+        <v>0.01118719839719096</v>
       </c>
       <c r="M3" t="n">
-        <v>8.861457747294718</v>
+        <v>8.844068335952985</v>
       </c>
       <c r="N3" t="n">
-        <v>121.6357430283037</v>
+        <v>121.0549968203551</v>
       </c>
       <c r="O3" t="n">
-        <v>11.02885955247884</v>
+        <v>11.00249957147716</v>
       </c>
       <c r="P3" t="n">
-        <v>345.8302059842041</v>
+        <v>345.7689903042256</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32776,28 +33031,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1696335241516405</v>
+        <v>-0.1687884742121157</v>
       </c>
       <c r="J4" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K4" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01276529128872217</v>
+        <v>0.01279819517630665</v>
       </c>
       <c r="M4" t="n">
-        <v>8.349864326667451</v>
+        <v>8.323960080144145</v>
       </c>
       <c r="N4" t="n">
-        <v>111.298923755206</v>
+        <v>110.6977780735378</v>
       </c>
       <c r="O4" t="n">
-        <v>10.54983050836392</v>
+        <v>10.52130115877014</v>
       </c>
       <c r="P4" t="n">
-        <v>351.1590908772806</v>
+        <v>351.1499603920037</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32854,28 +33109,28 @@
         <v>0.0503</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.114680602073057</v>
+        <v>-0.1127828378120072</v>
       </c>
       <c r="J5" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K5" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005786392391342488</v>
+        <v>0.005673997199293179</v>
       </c>
       <c r="M5" t="n">
-        <v>8.42973718892606</v>
+        <v>8.396180553975858</v>
       </c>
       <c r="N5" t="n">
-        <v>114.7679658718886</v>
+        <v>114.0260307613948</v>
       </c>
       <c r="O5" t="n">
-        <v>10.71298118508049</v>
+        <v>10.67829718454187</v>
       </c>
       <c r="P5" t="n">
-        <v>349.2475666135587</v>
+        <v>349.2271092220417</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32932,28 +33187,28 @@
         <v>0.0524</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0334181639178203</v>
+        <v>-0.03896695859266156</v>
       </c>
       <c r="J6" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K6" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005537729969273819</v>
+        <v>0.0007628028709204537</v>
       </c>
       <c r="M6" t="n">
-        <v>8.185032267847744</v>
+        <v>8.149954718015717</v>
       </c>
       <c r="N6" t="n">
-        <v>103.0228508648264</v>
+        <v>102.3977315430843</v>
       </c>
       <c r="O6" t="n">
-        <v>10.15001728396688</v>
+        <v>10.11917642612699</v>
       </c>
       <c r="P6" t="n">
-        <v>346.3167359124054</v>
+        <v>346.3765820499803</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33010,28 +33265,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01009753713958519</v>
+        <v>0.01672314017878021</v>
       </c>
       <c r="J7" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K7" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L7" t="n">
-        <v>4.073760550338257e-05</v>
+        <v>0.0001131210862591603</v>
       </c>
       <c r="M7" t="n">
-        <v>8.831060014608152</v>
+        <v>8.79501979108916</v>
       </c>
       <c r="N7" t="n">
-        <v>128.3951154736997</v>
+        <v>127.6973221783151</v>
       </c>
       <c r="O7" t="n">
-        <v>11.33115684622271</v>
+        <v>11.30032398554639</v>
       </c>
       <c r="P7" t="n">
-        <v>345.5405299928137</v>
+        <v>345.4693977487206</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33088,28 +33343,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2633116516440249</v>
+        <v>0.2593762981386649</v>
       </c>
       <c r="J8" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K8" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02959373593178316</v>
+        <v>0.02911066269594997</v>
       </c>
       <c r="M8" t="n">
-        <v>8.506396591552525</v>
+        <v>8.472353617868526</v>
       </c>
       <c r="N8" t="n">
-        <v>115.2120753162736</v>
+        <v>114.5299291170591</v>
       </c>
       <c r="O8" t="n">
-        <v>10.73368880284283</v>
+        <v>10.70186568393844</v>
       </c>
       <c r="P8" t="n">
-        <v>345.0157528404049</v>
+        <v>345.0583016954628</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33166,28 +33421,28 @@
         <v>0.0609</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3265970647729883</v>
+        <v>0.3128309727719724</v>
       </c>
       <c r="J9" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K9" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03470527355743502</v>
+        <v>0.03221490085508827</v>
       </c>
       <c r="M9" t="n">
-        <v>9.803883297059912</v>
+        <v>9.815438204114237</v>
       </c>
       <c r="N9" t="n">
-        <v>151.9199672781528</v>
+        <v>151.8808751092268</v>
       </c>
       <c r="O9" t="n">
-        <v>12.32558182310891</v>
+        <v>12.32399590673523</v>
       </c>
       <c r="P9" t="n">
-        <v>349.2700581963619</v>
+        <v>349.4181606457213</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33244,28 +33499,28 @@
         <v>0.0596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3733302917854719</v>
+        <v>0.3485304627579006</v>
       </c>
       <c r="J10" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K10" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03984091336114348</v>
+        <v>0.03498453188170336</v>
       </c>
       <c r="M10" t="n">
-        <v>10.51991662133693</v>
+        <v>10.5691006625531</v>
       </c>
       <c r="N10" t="n">
-        <v>171.6051222183124</v>
+        <v>172.4703969153062</v>
       </c>
       <c r="O10" t="n">
-        <v>13.09981382380347</v>
+        <v>13.13279851803515</v>
       </c>
       <c r="P10" t="n">
-        <v>355.3408314063113</v>
+        <v>355.6059930799938</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33322,28 +33577,28 @@
         <v>0.0431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.184187339577018</v>
+        <v>0.1705343705151531</v>
       </c>
       <c r="J11" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K11" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008601422797187341</v>
+        <v>0.007458343994234728</v>
       </c>
       <c r="M11" t="n">
-        <v>11.17508025138095</v>
+        <v>11.16109240527583</v>
       </c>
       <c r="N11" t="n">
-        <v>199.5713122779299</v>
+        <v>198.9706521331639</v>
       </c>
       <c r="O11" t="n">
-        <v>14.12697109354762</v>
+        <v>14.1056957337511</v>
       </c>
       <c r="P11" t="n">
-        <v>359.0385575286235</v>
+        <v>359.185421571547</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33400,28 +33655,28 @@
         <v>0.0373</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4602455617167321</v>
+        <v>-0.4661884820338308</v>
       </c>
       <c r="J12" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K12" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03362794430798566</v>
+        <v>0.03497508311339004</v>
       </c>
       <c r="M12" t="n">
-        <v>13.64951959262557</v>
+        <v>13.58243817010539</v>
       </c>
       <c r="N12" t="n">
-        <v>311.9477708464145</v>
+        <v>309.6919603825669</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66204322399916</v>
+        <v>17.59806695016719</v>
       </c>
       <c r="P12" t="n">
-        <v>363.8087842658375</v>
+        <v>363.8724721589154</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33459,7 +33714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M618"/>
+  <dimension ref="A1:M623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70133,6 +70388,301 @@
         </is>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-45.56270574685663,170.73160434532596</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-45.563344513463846,170.7313372454031</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-45.563866751162124,170.7308495091949</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-45.56441774684832,170.73044109227203</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-45.56494436672995,170.72994659167128</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-45.565563068306645,170.72970750421865</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-45.56609835903148,170.72923554331763</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>-45.56669346627574,170.72894272334585</t>
+        </is>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>-45.567264258415285,170.7285828627492</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>-45.56790115880996,170.72846643797567</t>
+        </is>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>-45.56842635898346,170.72794561230285</t>
+        </is>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-45.562689352953505,170.73157146028777</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-45.563322121511355,170.73129232834117</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-45.56384913340736,170.73080990060026</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-45.564402208981704,170.73040003122932</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-45.56493398598142,170.72991789350644</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-45.56553254477305,170.72961998466042</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>-45.56610808333339,170.72926550596117</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>-45.56667280715843,170.72887563862076</t>
+        </is>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>-45.56725362168724,170.72854328306417</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>-45.56787415309888,170.72836142260687</t>
+        </is>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>-45.568435418744016,170.7279779414356</t>
+        </is>
+      </c>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-45.562691161348695,170.73157508780187</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-45.56334092033773,170.7313300377791</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-45.56387344205457,170.73086455180984</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-45.56440452283032,170.73040614590252</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-45.56495326450881,170.72997119010682</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-45.56552929270875,170.72961066009395</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-45.566122940240334,170.72931128331925</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>-45.56668555078384,170.72891701997145</t>
+        </is>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>-45.56726586313073,170.72858883396435</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>-45.567871925819524,170.72835276155016</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>-45.56845602942772,170.72805148940262</t>
+        </is>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:06+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
+      <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>-45.56673688642524,170.72908371875124</t>
+        </is>
+      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:13+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-45.56267420408888,170.73154107274436</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-45.56327093240234,170.73118964598393</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>-45.563802152662866,170.73070427780394</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>-45.56436744431627,170.73030816083215</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>-45.56491754978187,170.72987245476753</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>-45.56552018401469,170.72958454296958</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>-45.56607702340817,170.72916980384193</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>-45.56662819121617,170.7287307613835</t>
+        </is>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>-45.56723655144977,170.72847976417344</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>-45.567845322154945,170.72824931009424</t>
+        </is>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>-45.568411259362584,170.72789173043867</t>
+        </is>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M623"/>
+  <dimension ref="A1:M626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26103,6 +26103,125 @@
         </is>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>330.3145454545455</v>
+      </c>
+      <c r="C624" t="n">
+        <v>336.17</v>
+      </c>
+      <c r="D624" t="n">
+        <v>349.44</v>
+      </c>
+      <c r="E624" t="n">
+        <v>344.5455555555556</v>
+      </c>
+      <c r="F624" t="n">
+        <v>335.57</v>
+      </c>
+      <c r="G624" t="n">
+        <v>335.9145454545454</v>
+      </c>
+      <c r="H624" t="n">
+        <v>345.1266666666667</v>
+      </c>
+      <c r="I624" t="n">
+        <v>335.6745454545455</v>
+      </c>
+      <c r="J624" t="n">
+        <v>351.3745454545455</v>
+      </c>
+      <c r="K624" t="n">
+        <v>351.37</v>
+      </c>
+      <c r="L624" t="n">
+        <v>354.2571428571428</v>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>320.5636363636364</v>
+      </c>
+      <c r="C625" t="n">
+        <v>336.74</v>
+      </c>
+      <c r="D625" t="n">
+        <v>350.47</v>
+      </c>
+      <c r="E625" t="n">
+        <v>351.6422222222222</v>
+      </c>
+      <c r="F625" t="n">
+        <v>335.42</v>
+      </c>
+      <c r="G625" t="n">
+        <v>340.7936363636364</v>
+      </c>
+      <c r="H625" t="n">
+        <v>352.8866666666667</v>
+      </c>
+      <c r="I625" t="n">
+        <v>353.6736363636364</v>
+      </c>
+      <c r="J625" t="n">
+        <v>360.9736363636364</v>
+      </c>
+      <c r="K625" t="n">
+        <v>374.36</v>
+      </c>
+      <c r="L625" t="n">
+        <v>375.8371428571429</v>
+      </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>323.0145454545454</v>
+      </c>
+      <c r="C626" t="n">
+        <v>344.24</v>
+      </c>
+      <c r="D626" t="n">
+        <v>342.21</v>
+      </c>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26114,7 +26233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B658"/>
+  <dimension ref="A1:B661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32702,6 +32821,36 @@
       </c>
       <c r="B658" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -32875,28 +33024,28 @@
         <v>0.0648</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2086199555216004</v>
+        <v>-0.2151049751221416</v>
       </c>
       <c r="J2" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0144242521237159</v>
+        <v>0.01546862736108601</v>
       </c>
       <c r="M2" t="n">
-        <v>9.667507498169627</v>
+        <v>9.641922405090931</v>
       </c>
       <c r="N2" t="n">
-        <v>148.6727339713183</v>
+        <v>148.0683608602505</v>
       </c>
       <c r="O2" t="n">
-        <v>12.19314290785269</v>
+        <v>12.1683343502819</v>
       </c>
       <c r="P2" t="n">
-        <v>335.5899902985674</v>
+        <v>335.6613424823892</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32953,28 +33102,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1652180722849403</v>
+        <v>-0.1679361990418272</v>
       </c>
       <c r="J3" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K3" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01118719839719096</v>
+        <v>0.01167276101151948</v>
       </c>
       <c r="M3" t="n">
-        <v>8.844068335952985</v>
+        <v>8.81784270822719</v>
       </c>
       <c r="N3" t="n">
-        <v>121.0549968203551</v>
+        <v>120.4760415842964</v>
       </c>
       <c r="O3" t="n">
-        <v>11.00249957147716</v>
+        <v>10.97615786986942</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7689903042256</v>
+        <v>345.7986968853101</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33031,28 +33180,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1687884742121157</v>
+        <v>-0.1681165528504831</v>
       </c>
       <c r="J4" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K4" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01279819517630665</v>
+        <v>0.01282924322141776</v>
       </c>
       <c r="M4" t="n">
-        <v>8.323960080144145</v>
+        <v>8.296725690619169</v>
       </c>
       <c r="N4" t="n">
-        <v>110.6977780735378</v>
+        <v>110.1379546604159</v>
       </c>
       <c r="O4" t="n">
-        <v>10.52130115877014</v>
+        <v>10.49466315135535</v>
       </c>
       <c r="P4" t="n">
-        <v>351.1499603920037</v>
+        <v>351.1426191628913</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33109,28 +33258,28 @@
         <v>0.0503</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1127828378120072</v>
+        <v>-0.1114285139048909</v>
       </c>
       <c r="J5" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K5" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005673997199293179</v>
+        <v>0.005577746063048172</v>
       </c>
       <c r="M5" t="n">
-        <v>8.396180553975858</v>
+        <v>8.376945399453264</v>
       </c>
       <c r="N5" t="n">
-        <v>114.0260307613948</v>
+        <v>113.6407338454622</v>
       </c>
       <c r="O5" t="n">
-        <v>10.67829718454187</v>
+        <v>10.66024079678608</v>
       </c>
       <c r="P5" t="n">
-        <v>349.2271092220417</v>
+        <v>349.2123732439772</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33187,28 +33336,28 @@
         <v>0.0524</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03896695859266156</v>
+        <v>-0.04638105726416103</v>
       </c>
       <c r="J6" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K6" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007628028709204537</v>
+        <v>0.001084446336366951</v>
       </c>
       <c r="M6" t="n">
-        <v>8.149954718015717</v>
+        <v>8.156082727886085</v>
       </c>
       <c r="N6" t="n">
-        <v>102.3977315430843</v>
+        <v>102.3739352108303</v>
       </c>
       <c r="O6" t="n">
-        <v>10.11917642612699</v>
+        <v>10.11800055400425</v>
       </c>
       <c r="P6" t="n">
-        <v>346.3765820499803</v>
+        <v>346.4568479326775</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33265,28 +33414,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01672314017878021</v>
+        <v>0.01124895360360563</v>
       </c>
       <c r="J7" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K7" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001131210862591603</v>
+        <v>5.146408751488529e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.79501979108916</v>
+        <v>8.792950153526348</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6973221783151</v>
+        <v>127.4496590487073</v>
       </c>
       <c r="O7" t="n">
-        <v>11.30032398554639</v>
+        <v>11.28936043576904</v>
       </c>
       <c r="P7" t="n">
-        <v>345.4693977487206</v>
+        <v>345.5284763395849</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33343,28 +33492,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2593762981386649</v>
+        <v>0.2573153855672681</v>
       </c>
       <c r="J8" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K8" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02911066269594997</v>
+        <v>0.02884953950926639</v>
       </c>
       <c r="M8" t="n">
-        <v>8.472353617868526</v>
+        <v>8.454617469708399</v>
       </c>
       <c r="N8" t="n">
-        <v>114.5299291170591</v>
+        <v>114.1786860595966</v>
       </c>
       <c r="O8" t="n">
-        <v>10.70186568393844</v>
+        <v>10.68544271706122</v>
       </c>
       <c r="P8" t="n">
-        <v>345.0583016954628</v>
+        <v>345.0806433110471</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33421,28 +33570,28 @@
         <v>0.0609</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3128309727719724</v>
+        <v>0.30336242549509</v>
       </c>
       <c r="J9" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K9" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03221490085508827</v>
+        <v>0.0303864888189187</v>
       </c>
       <c r="M9" t="n">
-        <v>9.815438204114237</v>
+        <v>9.831171935391597</v>
       </c>
       <c r="N9" t="n">
-        <v>151.8808751092268</v>
+        <v>152.2376582329992</v>
       </c>
       <c r="O9" t="n">
-        <v>12.32399590673523</v>
+        <v>12.33846255548069</v>
       </c>
       <c r="P9" t="n">
-        <v>349.4181606457213</v>
+        <v>349.5203899161954</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33499,28 +33648,28 @@
         <v>0.0596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3485304627579006</v>
+        <v>0.3422476758435178</v>
       </c>
       <c r="J10" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K10" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03498453188170336</v>
+        <v>0.03395536089970808</v>
       </c>
       <c r="M10" t="n">
-        <v>10.5691006625531</v>
+        <v>10.56147917899889</v>
       </c>
       <c r="N10" t="n">
-        <v>172.4703969153062</v>
+        <v>172.1720191917531</v>
       </c>
       <c r="O10" t="n">
-        <v>13.13279851803515</v>
+        <v>13.12143357990098</v>
       </c>
       <c r="P10" t="n">
-        <v>355.6059930799938</v>
+        <v>355.6734341302928</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33577,28 +33726,28 @@
         <v>0.0431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1705343705151531</v>
+        <v>0.1699871595773521</v>
       </c>
       <c r="J11" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K11" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007458343994234728</v>
+        <v>0.007447150716688888</v>
       </c>
       <c r="M11" t="n">
-        <v>11.16109240527583</v>
+        <v>11.1624618745309</v>
       </c>
       <c r="N11" t="n">
-        <v>198.9706521331639</v>
+        <v>198.7145708994112</v>
       </c>
       <c r="O11" t="n">
-        <v>14.1056957337511</v>
+        <v>14.09661558316078</v>
       </c>
       <c r="P11" t="n">
-        <v>359.185421571547</v>
+        <v>359.1912871615406</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33655,28 +33804,28 @@
         <v>0.0373</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4661884820338308</v>
+        <v>-0.4557104048175905</v>
       </c>
       <c r="J12" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K12" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03497508311339004</v>
+        <v>0.03360586598402071</v>
       </c>
       <c r="M12" t="n">
-        <v>13.58243817010539</v>
+        <v>13.57985924872532</v>
       </c>
       <c r="N12" t="n">
-        <v>309.6919603825669</v>
+        <v>309.6133386311564</v>
       </c>
       <c r="O12" t="n">
-        <v>17.59806695016719</v>
+        <v>17.59583299054513</v>
       </c>
       <c r="P12" t="n">
-        <v>363.8724721589154</v>
+        <v>363.7597170515433</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33714,7 +33863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M623"/>
+  <dimension ref="A1:M626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70683,6 +70832,175 @@
         </is>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-45.56272261415197,170.73163817999563</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-45.56327275500694,170.73119330201578</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-45.56385794228639,170.73082970489446</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-45.56438516330436,170.73035498565056</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-45.564911741496594,170.7298563974753</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-45.5654784345464,170.72946483611645</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-45.56608629484808,170.72919837104888</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>-45.566630670979166,170.7287388136678</t>
+        </is>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>-45.56726489854773,170.72858524470928</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>-45.567862892957685,170.7283176361608</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>-45.56845259034761,170.7280392172397</t>
+        </is>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-45.562671837078085,170.7315363246922</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-45.56327572324848,170.73119925612534</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-45.563862900287894,170.73084085157646</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-45.56441544722602,170.73043501518617</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-45.56491112359378,170.7298546892529</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-45.565497957903645,170.72952081471902</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-45.56611558097877,170.72928860782548</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>-45.566695699691515,170.7289499757516</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>-45.56729576222614,170.72870009005723</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>-45.56793401099046,170.72859418877064</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>-45.56852454401762,170.72829598112438</t>
+        </is>
+      </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-45.562684599998065,170.73156192619425</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-45.56331477903018,170.73127759973104</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-45.56382313997436,170.730751461736</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr"/>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M626"/>
+  <dimension ref="A1:M630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26222,6 +26222,186 @@
         </is>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>332.3663636363636</v>
+      </c>
+      <c r="C627" t="n">
+        <v>341.25</v>
+      </c>
+      <c r="D627" t="n">
+        <v>346.16</v>
+      </c>
+      <c r="E627" t="n">
+        <v>345.4388888888889</v>
+      </c>
+      <c r="F627" t="n">
+        <v>341.82</v>
+      </c>
+      <c r="G627" t="n">
+        <v>341.2363636363636</v>
+      </c>
+      <c r="H627" t="n">
+        <v>344.5066666666667</v>
+      </c>
+      <c r="I627" t="n">
+        <v>347.2563636363636</v>
+      </c>
+      <c r="J627" t="n">
+        <v>365.4463636363636</v>
+      </c>
+      <c r="K627" t="n">
+        <v>348.54</v>
+      </c>
+      <c r="L627" t="n">
+        <v>396.3214285714286</v>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>331.9954545454545</v>
+      </c>
+      <c r="C628" t="n">
+        <v>341.62</v>
+      </c>
+      <c r="D628" t="n">
+        <v>354.71</v>
+      </c>
+      <c r="E628" t="n">
+        <v>349.5044444444445</v>
+      </c>
+      <c r="F628" t="n">
+        <v>338.83</v>
+      </c>
+      <c r="G628" t="n">
+        <v>336.0554545454545</v>
+      </c>
+      <c r="H628" t="n">
+        <v>347.7133333333333</v>
+      </c>
+      <c r="I628" t="n">
+        <v>360.7654545454546</v>
+      </c>
+      <c r="J628" t="n">
+        <v>355.7554545454545</v>
+      </c>
+      <c r="K628" t="n">
+        <v>349.61</v>
+      </c>
+      <c r="L628" t="n">
+        <v>353.4085714285715</v>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>337.5581818181818</v>
+      </c>
+      <c r="C629" t="n">
+        <v>329.06</v>
+      </c>
+      <c r="D629" t="n">
+        <v>343.35</v>
+      </c>
+      <c r="E629" t="n">
+        <v>339.3211111111111</v>
+      </c>
+      <c r="F629" t="n">
+        <v>339.73</v>
+      </c>
+      <c r="G629" t="n">
+        <v>344.4481818181818</v>
+      </c>
+      <c r="H629" t="n">
+        <v>347.4633333333333</v>
+      </c>
+      <c r="I629" t="n">
+        <v>358.8381818181818</v>
+      </c>
+      <c r="J629" t="n">
+        <v>349.4881818181818</v>
+      </c>
+      <c r="K629" t="n">
+        <v>341.21</v>
+      </c>
+      <c r="L629" t="n">
+        <v>338.7571428571428</v>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>341.2209090909091</v>
+      </c>
+      <c r="C630" t="n">
+        <v>345.5</v>
+      </c>
+      <c r="D630" t="n">
+        <v>357.34</v>
+      </c>
+      <c r="E630" t="n">
+        <v>350.5133333333333</v>
+      </c>
+      <c r="F630" t="n">
+        <v>357.68</v>
+      </c>
+      <c r="G630" t="n">
+        <v>345.3409090909091</v>
+      </c>
+      <c r="H630" t="n">
+        <v>360.78</v>
+      </c>
+      <c r="I630" t="n">
+        <v>356.1909090909091</v>
+      </c>
+      <c r="J630" t="n">
+        <v>361.7309090909091</v>
+      </c>
+      <c r="K630" t="n">
+        <v>352.74</v>
+      </c>
+      <c r="L630" t="n">
+        <v>353.6842857142857</v>
+      </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26233,7 +26413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B661"/>
+  <dimension ref="A1:B665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32851,6 +33031,46 @@
       </c>
       <c r="B661" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -33024,28 +33244,28 @@
         <v>0.0648</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2151049751221416</v>
+        <v>-0.2063095903185724</v>
       </c>
       <c r="J2" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01546862736108601</v>
+        <v>0.01442870016825237</v>
       </c>
       <c r="M2" t="n">
-        <v>9.641922405090931</v>
+        <v>9.612051786611843</v>
       </c>
       <c r="N2" t="n">
-        <v>148.0683608602505</v>
+        <v>147.2688090323486</v>
       </c>
       <c r="O2" t="n">
-        <v>12.1683343502819</v>
+        <v>12.13543608744031</v>
       </c>
       <c r="P2" t="n">
-        <v>335.6613424823892</v>
+        <v>335.5641843158738</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33102,28 +33322,28 @@
         <v>0.0568</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1679361990418272</v>
+        <v>-0.1709839053884007</v>
       </c>
       <c r="J3" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01167276101151948</v>
+        <v>0.0122416467219697</v>
       </c>
       <c r="M3" t="n">
-        <v>8.81784270822719</v>
+        <v>8.782862212574962</v>
       </c>
       <c r="N3" t="n">
-        <v>120.4760415842964</v>
+        <v>119.8871877293787</v>
       </c>
       <c r="O3" t="n">
-        <v>10.97615786986942</v>
+        <v>10.94930078723654</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7986968853101</v>
+        <v>345.8321625636623</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33180,28 +33400,28 @@
         <v>0.0558</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1681165528504831</v>
+        <v>-0.1627633145583209</v>
       </c>
       <c r="J4" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01282924322141776</v>
+        <v>0.01217212869165563</v>
       </c>
       <c r="M4" t="n">
-        <v>8.296725690619169</v>
+        <v>8.275072299738964</v>
       </c>
       <c r="N4" t="n">
-        <v>110.1379546604159</v>
+        <v>109.6509721310118</v>
       </c>
       <c r="O4" t="n">
-        <v>10.49466315135535</v>
+        <v>10.47143601093049</v>
       </c>
       <c r="P4" t="n">
-        <v>351.1426191628913</v>
+        <v>351.0836272685705</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33258,28 +33478,28 @@
         <v>0.0503</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1114285139048909</v>
+        <v>-0.1116008749045903</v>
       </c>
       <c r="J5" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K5" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005577746063048172</v>
+        <v>0.005671037950842561</v>
       </c>
       <c r="M5" t="n">
-        <v>8.376945399453264</v>
+        <v>8.341477886411838</v>
       </c>
       <c r="N5" t="n">
-        <v>113.6407338454622</v>
+        <v>112.9071262023062</v>
       </c>
       <c r="O5" t="n">
-        <v>10.66024079678608</v>
+        <v>10.62577649879322</v>
       </c>
       <c r="P5" t="n">
-        <v>349.2123732439772</v>
+        <v>349.2142440203934</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33336,28 +33556,28 @@
         <v>0.0524</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04638105726416103</v>
+        <v>-0.04744947939116713</v>
       </c>
       <c r="J6" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K6" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001084446336366951</v>
+        <v>0.001146728784816586</v>
       </c>
       <c r="M6" t="n">
-        <v>8.156082727886085</v>
+        <v>8.146594781024692</v>
       </c>
       <c r="N6" t="n">
-        <v>102.3739352108303</v>
+        <v>102.0401992893021</v>
       </c>
       <c r="O6" t="n">
-        <v>10.11800055400425</v>
+        <v>10.10149490369134</v>
       </c>
       <c r="P6" t="n">
-        <v>346.4568479326775</v>
+        <v>346.4683601772874</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33414,28 +33634,28 @@
         <v>0.0603</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01124895360360563</v>
+        <v>0.005456398042335333</v>
       </c>
       <c r="J7" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K7" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L7" t="n">
-        <v>5.146408751488529e-05</v>
+        <v>1.226387419106523e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>8.792950153526348</v>
+        <v>8.75940876346319</v>
       </c>
       <c r="N7" t="n">
-        <v>127.4496590487073</v>
+        <v>126.7114648375379</v>
       </c>
       <c r="O7" t="n">
-        <v>11.28936043576904</v>
+        <v>11.25661871245259</v>
       </c>
       <c r="P7" t="n">
-        <v>345.5284763395849</v>
+        <v>345.591226131954</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33492,28 +33712,28 @@
         <v>0.0674</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2573153855672681</v>
+        <v>0.2548993345772461</v>
       </c>
       <c r="J8" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K8" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02884953950926639</v>
+        <v>0.02865723556986055</v>
       </c>
       <c r="M8" t="n">
-        <v>8.454617469708399</v>
+        <v>8.436978317806787</v>
       </c>
       <c r="N8" t="n">
-        <v>114.1786860595966</v>
+        <v>113.6318695542675</v>
       </c>
       <c r="O8" t="n">
-        <v>10.68544271706122</v>
+        <v>10.6598250245615</v>
       </c>
       <c r="P8" t="n">
-        <v>345.0806433110471</v>
+        <v>345.1068607595524</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33570,28 +33790,28 @@
         <v>0.0609</v>
       </c>
       <c r="I9" t="n">
-        <v>0.30336242549509</v>
+        <v>0.3009665481120884</v>
       </c>
       <c r="J9" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K9" t="n">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0303864888189187</v>
+        <v>0.03030713227885462</v>
       </c>
       <c r="M9" t="n">
-        <v>9.831171935391597</v>
+        <v>9.7879415316152</v>
       </c>
       <c r="N9" t="n">
-        <v>152.2376582329992</v>
+        <v>151.2981216627891</v>
       </c>
       <c r="O9" t="n">
-        <v>12.33846255548069</v>
+        <v>12.30033014446316</v>
       </c>
       <c r="P9" t="n">
-        <v>349.5203899161954</v>
+        <v>349.5463251594333</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33648,28 +33868,28 @@
         <v>0.0596</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3422476758435178</v>
+        <v>0.3327617289904556</v>
       </c>
       <c r="J10" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K10" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03395536089970808</v>
+        <v>0.03252078686792759</v>
       </c>
       <c r="M10" t="n">
-        <v>10.56147917899889</v>
+        <v>10.53402489002878</v>
       </c>
       <c r="N10" t="n">
-        <v>172.1720191917531</v>
+        <v>171.4594429270671</v>
       </c>
       <c r="O10" t="n">
-        <v>13.12143357990098</v>
+        <v>13.0942522859103</v>
       </c>
       <c r="P10" t="n">
-        <v>355.6734341302928</v>
+        <v>355.7757461241048</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33726,28 +33946,28 @@
         <v>0.0431</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699871595773521</v>
+        <v>0.1470417096729291</v>
       </c>
       <c r="J11" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K11" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007447150716688888</v>
+        <v>0.005610850703926196</v>
       </c>
       <c r="M11" t="n">
-        <v>11.1624618745309</v>
+        <v>11.19858203737263</v>
       </c>
       <c r="N11" t="n">
-        <v>198.7145708994112</v>
+        <v>199.1498194841751</v>
       </c>
       <c r="O11" t="n">
-        <v>14.09661558316078</v>
+        <v>14.1120451914021</v>
       </c>
       <c r="P11" t="n">
-        <v>359.1912871615406</v>
+        <v>359.4400709355684</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33804,28 +34024,28 @@
         <v>0.0373</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4557104048175905</v>
+        <v>-0.4423310315178067</v>
       </c>
       <c r="J12" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K12" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03360586598402071</v>
+        <v>0.03177714909457685</v>
       </c>
       <c r="M12" t="n">
-        <v>13.57985924872532</v>
+        <v>13.59092594504795</v>
       </c>
       <c r="N12" t="n">
-        <v>309.6133386311564</v>
+        <v>311.4485507609724</v>
       </c>
       <c r="O12" t="n">
-        <v>17.59583299054513</v>
+        <v>17.64790499637202</v>
       </c>
       <c r="P12" t="n">
-        <v>363.7597170515433</v>
+        <v>363.6154996390745</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33863,7 +34083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M626"/>
+  <dimension ref="A1:M630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71001,6 +71221,274 @@
         </is>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-45.56273329881875,170.73165961274532</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-45.56329920879811,170.73124636673376</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-45.5638421536921,170.73079420867765</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-45.56438897546847,170.7303650598193</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-45.564937487425155,170.72992757344178</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-45.56549972944601,170.7295258942029</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-45.566083954973806,170.72919116141367</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>-45.56667251484315,170.72887468940962</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>-45.567310143217654,170.72875360266067</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>-45.56785413849585,170.72828359341437</t>
+        </is>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>-45.56859284375063,170.72853970856883</t>
+        </is>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-45.56273136734182,170.73165573832654</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-45.563301135549686,170.73125023168564</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-45.56388330991402,170.73088673696796</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-45.56440632459746,170.73041090732872</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-45.564925170578334,170.72989352285114</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-45.5654789983851,170.72946645278878</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-45.56609605689938,170.72922844996376</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>-45.56672132153646,170.72903317581896</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>-45.56727898437164,170.72863765872216</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>-45.56785744848788,170.72829646469884</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>-45.56844976096493,170.7280291207523</t>
+        </is>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-45.5627603347482,170.73171384514066</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-45.56323573007417,170.73111903238677</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-45.5638286274793,170.73076379882502</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-45.564362868765066,170.7302960693332</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-45.564928877991456,170.72990377219122</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-45.56551258130631,170.72956274393866</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-45.56609511340249,170.72922554285165</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-45.56671435854896,170.7290105653584</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>-45.56725883336414,170.7285626759115</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>-45.56783146346533,170.72819541914322</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>-45.5684009087248,170.72785479503287</t>
+        </is>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-45.56277940805834,170.73175210507785</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-45.563321340396435,170.73129076146756</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-45.563895969649536,170.73091519891406</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-45.56441062987184,170.73042228463257</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-45.56500282009939,170.7301081898721</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-45.56551615348845,170.7295729863534</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-45.56614537023609,170.7293803951607</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-45.5667047942873,170.72897950798043</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-45.56729819705835,170.7287091502176</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>-45.5678671309798,170.72833411622216</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>-45.56845068027623,170.72803240126072</t>
+        </is>
+      </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -33235,13 +33235,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0493</v>
+        <v>0.0573</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0648</v>
+        <v>0.1217</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2063096738210853</v>
@@ -33313,13 +33313,13 @@
         <v>0.1002200610029271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0485</v>
+        <v>0.1067</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0568</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1709839053884008</v>
@@ -33391,13 +33391,13 @@
         <v>0.2004401220058541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0477</v>
+        <v>0.0599</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0558</v>
+        <v>0.1523</v>
       </c>
       <c r="I4" t="n">
         <v>-0.162763314558321</v>
@@ -33469,13 +33469,13 @@
         <v>0.3004745896751078</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0437</v>
+        <v>0.0533</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0503</v>
+        <v>0.1217</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1115901044791719</v>
@@ -33547,13 +33547,13 @@
         <v>0.4006946506775621</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0457</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0524</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.04744947939116728</v>
@@ -33625,13 +33625,13 @@
         <v>0.5009117503003817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.0712</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0603</v>
+        <v>0.1762</v>
       </c>
       <c r="I7" t="n">
         <v>0.00546532941145875</v>
@@ -33703,13 +33703,13 @@
         <v>0.6011318113030482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0572</v>
+        <v>0.0731</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0674</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.254900533353939</v>
@@ -33781,13 +33781,13 @@
         <v>0.7013367884850094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0517</v>
+        <v>0.0593</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0609</v>
+        <v>0.1619</v>
       </c>
       <c r="I9" t="n">
         <v>0.3009705160445825</v>
@@ -33859,13 +33859,13 @@
         <v>0.8015568494897382</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0489</v>
+        <v>0.0575</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0596</v>
+        <v>0.104</v>
       </c>
       <c r="I10" t="n">
         <v>0.3327608572506172</v>
@@ -33937,13 +33937,13 @@
         <v>0.9016548265239751</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0379</v>
+        <v>0.0291</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0431</v>
+        <v>0.0381</v>
       </c>
       <c r="I11" t="n">
         <v>0.1470417096729291</v>
@@ -34015,13 +34015,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0297</v>
+        <v>0.0235</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0373</v>
+        <v>0.0273</v>
       </c>
       <c r="I12" t="n">
         <v>-0.4423334367784262</v>

--- a/data/nzd0494/nzd0494.xlsx
+++ b/data/nzd0494/nzd0494.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M630"/>
+  <dimension ref="A1:M631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28803,6 +28803,51 @@
         <v>356.92</v>
       </c>
       <c r="M630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>328.84</v>
+      </c>
+      <c r="C631" t="n">
+        <v>341.62</v>
+      </c>
+      <c r="D631" t="n">
+        <v>347.85</v>
+      </c>
+      <c r="E631" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="F631" t="n">
+        <v>341.59</v>
+      </c>
+      <c r="G631" t="n">
+        <v>345</v>
+      </c>
+      <c r="H631" t="n">
+        <v>349.24</v>
+      </c>
+      <c r="I631" t="n">
+        <v>351.06</v>
+      </c>
+      <c r="J631" t="n">
+        <v>352.57</v>
+      </c>
+      <c r="K631" t="n">
+        <v>351.71</v>
+      </c>
+      <c r="L631" t="n">
+        <v>349.81</v>
+      </c>
+      <c r="M631" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -28819,7 +28864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35477,6 +35522,16 @@
       </c>
       <c r="B665" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -35644,34 +35699,34 @@
         <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0573</v>
+        <v>0.0576</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1217</v>
+        <v>0.122</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2533567827292886</v>
+        <v>-0.2540360122246244</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K2" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08031216168729738</v>
+        <v>0.08094589817702891</v>
       </c>
       <c r="M2" t="n">
-        <v>4.8490130356852</v>
+        <v>4.844103008805416</v>
       </c>
       <c r="N2" t="n">
-        <v>36.96135441397268</v>
+        <v>36.90954858485373</v>
       </c>
       <c r="O2" t="n">
-        <v>6.079585052778905</v>
+        <v>6.075322920212039</v>
       </c>
       <c r="P2" t="n">
-        <v>337.5794886496371</v>
+        <v>337.5869918310508</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -35726,34 +35781,34 @@
         <v>0.17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1067</v>
+        <v>0.1066</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2412226439220835</v>
+        <v>-0.24150364145612</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K3" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1180456060514949</v>
+        <v>0.1186356421365288</v>
       </c>
       <c r="M3" t="n">
-        <v>3.78854864994246</v>
+        <v>3.783953774220653</v>
       </c>
       <c r="N3" t="n">
-        <v>21.86030045552097</v>
+        <v>21.82677615279057</v>
       </c>
       <c r="O3" t="n">
-        <v>4.675500021978502</v>
+        <v>4.671913542949031</v>
       </c>
       <c r="P3" t="n">
-        <v>348.8127198745049</v>
+        <v>348.8158239438794</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35804,34 +35859,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0599</v>
+        <v>0.0596</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1523</v>
+        <v>0.1492</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.208888711743659</v>
+        <v>-0.2088034998860409</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K4" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08602449778024646</v>
+        <v>0.08622598030516904</v>
       </c>
       <c r="M4" t="n">
-        <v>3.798820432436221</v>
+        <v>3.793200779122763</v>
       </c>
       <c r="N4" t="n">
-        <v>23.31127515961851</v>
+        <v>23.27438114959183</v>
       </c>
       <c r="O4" t="n">
-        <v>4.828175137628969</v>
+        <v>4.824352925480455</v>
       </c>
       <c r="P4" t="n">
-        <v>353.0782563558128</v>
+        <v>353.0773150538955</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35882,34 +35937,34 @@
         <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0533</v>
+        <v>0.053</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1217</v>
+        <v>0.1198</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1758907554357469</v>
+        <v>-0.1758506215224882</v>
       </c>
       <c r="J5" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K5" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06754072007825129</v>
+        <v>0.06772504244716249</v>
       </c>
       <c r="M5" t="n">
-        <v>3.682296219991186</v>
+        <v>3.676633932355565</v>
       </c>
       <c r="N5" t="n">
-        <v>21.4770137655315</v>
+        <v>21.44294722839195</v>
       </c>
       <c r="O5" t="n">
-        <v>4.634329915482011</v>
+        <v>4.630653002373634</v>
       </c>
       <c r="P5" t="n">
-        <v>351.5946651307194</v>
+        <v>351.5942217871454</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35960,34 +36015,34 @@
         <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06782248747788318</v>
+        <v>-0.06944795429776948</v>
       </c>
       <c r="J6" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K6" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008026883484945846</v>
+        <v>0.008429707371164996</v>
       </c>
       <c r="M6" t="n">
-        <v>4.1024100017802</v>
+        <v>4.103622050551997</v>
       </c>
       <c r="N6" t="n">
-        <v>28.58406888679994</v>
+        <v>28.57800131225491</v>
       </c>
       <c r="O6" t="n">
-        <v>5.346407100735965</v>
+        <v>5.345839626499743</v>
       </c>
       <c r="P6" t="n">
-        <v>348.3594034686911</v>
+        <v>348.3773593621191</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36038,34 +36093,34 @@
         <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0712</v>
+        <v>0.0708</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1762</v>
+        <v>0.1734</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0026766593348583</v>
+        <v>0.002075419073513403</v>
       </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K7" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L7" t="n">
-        <v>9.265410205183677e-06</v>
+        <v>5.588556583502324e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>4.928470426773802</v>
+        <v>4.923785374139749</v>
       </c>
       <c r="N7" t="n">
-        <v>38.88133827554583</v>
+        <v>38.82499931382143</v>
       </c>
       <c r="O7" t="n">
-        <v>6.235490219344894</v>
+        <v>6.230970976807822</v>
       </c>
       <c r="P7" t="n">
-        <v>346.7771964377865</v>
+        <v>346.7838381027688</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36116,34 +36171,34 @@
         <v>0.11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0731</v>
+        <v>0.0728</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2325868494739509</v>
+        <v>0.2314935913143997</v>
       </c>
       <c r="J8" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K8" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07575264335093757</v>
+        <v>0.0752933104843645</v>
       </c>
       <c r="M8" t="n">
-        <v>4.619261182998302</v>
+        <v>4.618099326947717</v>
       </c>
       <c r="N8" t="n">
-        <v>33.18825477502288</v>
+        <v>33.15335475281444</v>
       </c>
       <c r="O8" t="n">
-        <v>5.760924819421173</v>
+        <v>5.757894993208406</v>
       </c>
       <c r="P8" t="n">
-        <v>346.4900243271367</v>
+        <v>346.5021011205612</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36194,34 +36249,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0593</v>
+        <v>0.0592</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1619</v>
+        <v>0.1602</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3022107821635766</v>
+        <v>0.2998151046121724</v>
       </c>
       <c r="J9" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K9" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09214320422029132</v>
+        <v>0.09094358682069192</v>
       </c>
       <c r="M9" t="n">
-        <v>5.30201517018499</v>
+        <v>5.306099494216521</v>
       </c>
       <c r="N9" t="n">
-        <v>45.24781647930502</v>
+        <v>45.26137075517429</v>
       </c>
       <c r="O9" t="n">
-        <v>6.726649721763801</v>
+        <v>6.7276571520236</v>
       </c>
       <c r="P9" t="n">
-        <v>350.4765367032592</v>
+        <v>350.5030008120769</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36272,34 +36327,34 @@
         <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0575</v>
+        <v>0.0574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.104</v>
+        <v>0.1037</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3377094943630111</v>
+        <v>0.3335432637468957</v>
       </c>
       <c r="J10" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K10" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09862122371693216</v>
+        <v>0.09630188867789113</v>
       </c>
       <c r="M10" t="n">
-        <v>5.843755602601957</v>
+        <v>5.856675788931639</v>
       </c>
       <c r="N10" t="n">
-        <v>52.41398261425651</v>
+        <v>52.58899206082955</v>
       </c>
       <c r="O10" t="n">
-        <v>7.239750176232362</v>
+        <v>7.251826808524149</v>
       </c>
       <c r="P10" t="n">
-        <v>356.4904266744493</v>
+        <v>356.5364493874477</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36356,28 +36411,28 @@
         <v>0.0381</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1520153504950668</v>
+        <v>0.1481071988336939</v>
       </c>
       <c r="J11" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K11" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02623598014845996</v>
+        <v>0.02489180467676633</v>
       </c>
       <c r="M11" t="n">
-        <v>5.235239485221112</v>
+        <v>5.245745731762236</v>
       </c>
       <c r="N11" t="n">
-        <v>43.12757096552059</v>
+        <v>43.28632215184359</v>
       </c>
       <c r="O11" t="n">
-        <v>6.567158515333751</v>
+        <v>6.579234161499619</v>
       </c>
       <c r="P11" t="n">
-        <v>359.707564810469</v>
+        <v>359.7507366266353</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -36435,31 +36490,31 @@
         <v>0.0235</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0273</v>
+        <v>0.0272</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4719721455149041</v>
+        <v>-0.4729330842150361</v>
       </c>
       <c r="J12" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K12" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1392150014342409</v>
+        <v>0.1400860488729279</v>
       </c>
       <c r="M12" t="n">
-        <v>6.682070396982221</v>
+        <v>6.675499165455355</v>
       </c>
       <c r="N12" t="n">
-        <v>69.2572222125676</v>
+        <v>69.16102646853302</v>
       </c>
       <c r="O12" t="n">
-        <v>8.322092417929976</v>
+        <v>8.316310868920969</v>
       </c>
       <c r="P12" t="n">
-        <v>365.1547651715958</v>
+        <v>365.1653802839312</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -36501,7 +36556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M630"/>
+  <dimension ref="A1:M631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78719,6 +78774,73 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:45+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-45.56271493558089,170.73162277728915</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-45.563301135549686,170.73125023168564</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-45.563850288670366,170.73081249788441</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-45.564396064005166,170.73038379226367</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-45.564936539975754,170.72992495416506</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-45.56551478936605,170.72956907504414</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>-45.56610181851881,170.72924620273034</t>
+        </is>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>-45.56668625693791,170.7289193130108</t>
+        </is>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>-45.567268742264204,170.72859954734759</t>
+        </is>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>-45.567863944729815,170.7283217261028</t>
+        </is>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>-45.56843776227684,170.7279863041783</t>
+        </is>
+      </c>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
